--- a/엘리스 도서관 책 정보 리스트.xlsx
+++ b/엘리스 도서관 책 정보 리스트.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwon-yongchan/Desktop/my_Project/3_Library_Kwon/KwonYc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31625AC-3991-1A45-8EB4-14BA36F32323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
   <si>
     <t>book_name</t>
   </si>
@@ -620,99 +626,112 @@
   <si>
     <t>https://www.hanbit.co.kr/store/books/look.php?p_code=B9609283195</t>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -902,3915 +921,3919 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="9" max="9" width="62.71"/>
+    <col min="9" max="9" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="6">
+        <v>43647</v>
+      </c>
+      <c r="F2" s="3">
+        <v>240</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
-        <v>43647.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6">
+        <v>42745</v>
+      </c>
+      <c r="F3" s="3">
+        <v>576</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
-        <v>42745.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>576.0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="6">
+        <v>42936</v>
+      </c>
+      <c r="F4" s="3">
+        <v>376</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43728</v>
+      </c>
+      <c r="F5" s="3">
+        <v>328</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43868</v>
+      </c>
+      <c r="F6" s="3">
+        <v>656</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6">
+        <v>44039</v>
+      </c>
+      <c r="F7" s="3">
+        <v>296</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44218</v>
+      </c>
+      <c r="F8" s="3">
+        <v>648</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41851</v>
+      </c>
+      <c r="F9" s="3">
+        <v>572</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43941</v>
+      </c>
+      <c r="F10" s="3">
+        <v>504</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43108</v>
+      </c>
+      <c r="F11" s="3">
+        <v>340</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43616</v>
+      </c>
+      <c r="F12" s="3">
+        <v>436</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43677</v>
+      </c>
+      <c r="F13" s="3">
+        <v>744</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43735</v>
+      </c>
+      <c r="F14" s="3">
+        <v>448</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43791</v>
+      </c>
+      <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43693</v>
+      </c>
+      <c r="F16" s="3">
+        <v>216</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="6">
+        <v>44070</v>
+      </c>
+      <c r="F17" s="3">
+        <v>448</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42873</v>
+      </c>
+      <c r="F18" s="3">
+        <v>236</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="6">
+        <v>42944</v>
+      </c>
+      <c r="F19" s="3">
+        <v>364</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="6">
+        <v>43096</v>
+      </c>
+      <c r="F20" s="3">
+        <v>308</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="6">
+        <v>43364</v>
+      </c>
+      <c r="F21" s="3">
+        <v>296</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6">
+        <v>43580</v>
+      </c>
+      <c r="F22" s="3">
+        <v>304</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
-        <v>42936.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>376.0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43679</v>
+      </c>
+      <c r="F23" s="3">
+        <v>372</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="6">
+        <v>43725</v>
+      </c>
+      <c r="F24" s="3">
+        <v>240</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="B25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43768</v>
+      </c>
+      <c r="F25" s="3">
+        <v>212</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42010</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1224</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43626</v>
+      </c>
+      <c r="F27" s="3">
+        <v>664</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
-        <v>43728.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>328.0</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="6">
+        <v>43617</v>
+      </c>
+      <c r="F28" s="3">
+        <v>460</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="B29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="6">
+        <v>43871</v>
+      </c>
+      <c r="F29" s="3">
+        <v>360</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="6">
+        <v>43626</v>
+      </c>
+      <c r="F30" s="3">
+        <v>708</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43605</v>
+      </c>
+      <c r="F31" s="3">
+        <v>664</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B32" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="6">
+        <v>43931</v>
+      </c>
+      <c r="F32" s="3">
+        <v>812</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="E6" s="6">
-        <v>43868.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>656.0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6">
-        <v>44039.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>296.0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6">
-        <v>44218.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>648.0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="6">
-        <v>41851.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>572.0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43941.0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>504.0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="6">
-        <v>43108.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>340.0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6">
-        <v>43616.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>436.0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="6">
-        <v>43677.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>744.0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="6">
-        <v>43735.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>448.0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6">
-        <v>43791.0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500.0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="6">
-        <v>43693.0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>216.0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="6">
-        <v>44070.0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>448.0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="6">
-        <v>42873.0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>236.0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="6">
-        <v>42944.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>364.0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="6">
-        <v>43096.0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>308.0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="6">
-        <v>43364.0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>296.0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="6">
-        <v>43580.0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>304.0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="6">
-        <v>43679.0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>372.0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="6">
-        <v>43725.0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>240.0</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="6">
-        <v>43768.0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>212.0</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="B33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="6">
-        <v>42010.0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1224.0</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="6">
-        <v>43626.0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>664.0</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="6">
-        <v>43617.0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>460.0</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="6">
-        <v>43871.0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>360.0</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="6">
-        <v>43626.0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>708.0</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="6">
-        <v>43605.0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>664.0</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="6">
-        <v>43931.0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>812.0</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="6">
+        <v>44012</v>
+      </c>
+      <c r="F33" s="3">
+        <v>336</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="6">
-        <v>44012.0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>336.0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="G34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="G35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="G36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="G37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="G38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="G39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="G40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="G41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="G42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="G43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="G44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="G45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="G46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="G47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="G48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="7:7" ht="15.75" customHeight="1">
       <c r="G49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="7:7" ht="13">
       <c r="G50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="7:7" ht="13">
       <c r="G51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="7:7" ht="13">
       <c r="G52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="7:7" ht="13">
       <c r="G53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="7:7" ht="13">
       <c r="G54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="7:7" ht="13">
       <c r="G55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="7:7" ht="13">
       <c r="G56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="7:7" ht="13">
       <c r="G57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="7:7" ht="13">
       <c r="G58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="7:7" ht="13">
       <c r="G59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="7:7" ht="13">
       <c r="G60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="7:7" ht="13">
       <c r="G61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="7:7" ht="13">
       <c r="G62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="7:7" ht="13">
       <c r="G63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="7:7" ht="13">
       <c r="G64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="7:7" ht="13">
       <c r="G65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="7:7" ht="13">
       <c r="G66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="7:7" ht="13">
       <c r="G67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="7:7" ht="13">
       <c r="G68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="7:7" ht="13">
       <c r="G69" s="10"/>
     </row>
-    <row r="70">
+    <row r="70" spans="7:7" ht="13">
       <c r="G70" s="10"/>
     </row>
-    <row r="71">
+    <row r="71" spans="7:7" ht="13">
       <c r="G71" s="10"/>
     </row>
-    <row r="72">
+    <row r="72" spans="7:7" ht="13">
       <c r="G72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="7:7" ht="13">
       <c r="G73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="7:7" ht="13">
       <c r="G74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="7:7" ht="13">
       <c r="G75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="7:7" ht="13">
       <c r="G76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="7:7" ht="13">
       <c r="G77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="7:7" ht="13">
       <c r="G78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="7:7" ht="13">
       <c r="G79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="7:7" ht="13">
       <c r="G80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="7:7" ht="13">
       <c r="G81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="7:7" ht="13">
       <c r="G82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="7:7" ht="13">
       <c r="G83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="7:7" ht="13">
       <c r="G84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="7:7" ht="13">
       <c r="G85" s="10"/>
     </row>
-    <row r="86">
+    <row r="86" spans="7:7" ht="13">
       <c r="G86" s="10"/>
     </row>
-    <row r="87">
+    <row r="87" spans="7:7" ht="13">
       <c r="G87" s="10"/>
     </row>
-    <row r="88">
+    <row r="88" spans="7:7" ht="13">
       <c r="G88" s="10"/>
     </row>
-    <row r="89">
+    <row r="89" spans="7:7" ht="13">
       <c r="G89" s="10"/>
     </row>
-    <row r="90">
+    <row r="90" spans="7:7" ht="13">
       <c r="G90" s="10"/>
     </row>
-    <row r="91">
+    <row r="91" spans="7:7" ht="13">
       <c r="G91" s="10"/>
     </row>
-    <row r="92">
+    <row r="92" spans="7:7" ht="13">
       <c r="G92" s="10"/>
     </row>
-    <row r="93">
+    <row r="93" spans="7:7" ht="13">
       <c r="G93" s="10"/>
     </row>
-    <row r="94">
+    <row r="94" spans="7:7" ht="13">
       <c r="G94" s="10"/>
     </row>
-    <row r="95">
+    <row r="95" spans="7:7" ht="13">
       <c r="G95" s="10"/>
     </row>
-    <row r="96">
+    <row r="96" spans="7:7" ht="13">
       <c r="G96" s="10"/>
     </row>
-    <row r="97">
+    <row r="97" spans="7:7" ht="13">
       <c r="G97" s="10"/>
     </row>
-    <row r="98">
+    <row r="98" spans="7:7" ht="13">
       <c r="G98" s="10"/>
     </row>
-    <row r="99">
+    <row r="99" spans="7:7" ht="13">
       <c r="G99" s="10"/>
     </row>
-    <row r="100">
+    <row r="100" spans="7:7" ht="13">
       <c r="G100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="7:7" ht="13">
       <c r="G101" s="10"/>
     </row>
-    <row r="102">
+    <row r="102" spans="7:7" ht="13">
       <c r="G102" s="10"/>
     </row>
-    <row r="103">
+    <row r="103" spans="7:7" ht="13">
       <c r="G103" s="10"/>
     </row>
-    <row r="104">
+    <row r="104" spans="7:7" ht="13">
       <c r="G104" s="10"/>
     </row>
-    <row r="105">
+    <row r="105" spans="7:7" ht="13">
       <c r="G105" s="10"/>
     </row>
-    <row r="106">
+    <row r="106" spans="7:7" ht="13">
       <c r="G106" s="10"/>
     </row>
-    <row r="107">
+    <row r="107" spans="7:7" ht="13">
       <c r="G107" s="10"/>
     </row>
-    <row r="108">
+    <row r="108" spans="7:7" ht="13">
       <c r="G108" s="10"/>
     </row>
-    <row r="109">
+    <row r="109" spans="7:7" ht="13">
       <c r="G109" s="10"/>
     </row>
-    <row r="110">
+    <row r="110" spans="7:7" ht="13">
       <c r="G110" s="10"/>
     </row>
-    <row r="111">
+    <row r="111" spans="7:7" ht="13">
       <c r="G111" s="10"/>
     </row>
-    <row r="112">
+    <row r="112" spans="7:7" ht="13">
       <c r="G112" s="10"/>
     </row>
-    <row r="113">
+    <row r="113" spans="7:7" ht="13">
       <c r="G113" s="10"/>
     </row>
-    <row r="114">
+    <row r="114" spans="7:7" ht="13">
       <c r="G114" s="10"/>
     </row>
-    <row r="115">
+    <row r="115" spans="7:7" ht="13">
       <c r="G115" s="10"/>
     </row>
-    <row r="116">
+    <row r="116" spans="7:7" ht="13">
       <c r="G116" s="10"/>
     </row>
-    <row r="117">
+    <row r="117" spans="7:7" ht="13">
       <c r="G117" s="10"/>
     </row>
-    <row r="118">
+    <row r="118" spans="7:7" ht="13">
       <c r="G118" s="10"/>
     </row>
-    <row r="119">
+    <row r="119" spans="7:7" ht="13">
       <c r="G119" s="10"/>
     </row>
-    <row r="120">
+    <row r="120" spans="7:7" ht="13">
       <c r="G120" s="10"/>
     </row>
-    <row r="121">
+    <row r="121" spans="7:7" ht="13">
       <c r="G121" s="10"/>
     </row>
-    <row r="122">
+    <row r="122" spans="7:7" ht="13">
       <c r="G122" s="10"/>
     </row>
-    <row r="123">
+    <row r="123" spans="7:7" ht="13">
       <c r="G123" s="10"/>
     </row>
-    <row r="124">
+    <row r="124" spans="7:7" ht="13">
       <c r="G124" s="10"/>
     </row>
-    <row r="125">
+    <row r="125" spans="7:7" ht="13">
       <c r="G125" s="10"/>
     </row>
-    <row r="126">
+    <row r="126" spans="7:7" ht="13">
       <c r="G126" s="10"/>
     </row>
-    <row r="127">
+    <row r="127" spans="7:7" ht="13">
       <c r="G127" s="10"/>
     </row>
-    <row r="128">
+    <row r="128" spans="7:7" ht="13">
       <c r="G128" s="10"/>
     </row>
-    <row r="129">
+    <row r="129" spans="7:7" ht="13">
       <c r="G129" s="10"/>
     </row>
-    <row r="130">
+    <row r="130" spans="7:7" ht="13">
       <c r="G130" s="10"/>
     </row>
-    <row r="131">
+    <row r="131" spans="7:7" ht="13">
       <c r="G131" s="10"/>
     </row>
-    <row r="132">
+    <row r="132" spans="7:7" ht="13">
       <c r="G132" s="10"/>
     </row>
-    <row r="133">
+    <row r="133" spans="7:7" ht="13">
       <c r="G133" s="10"/>
     </row>
-    <row r="134">
+    <row r="134" spans="7:7" ht="13">
       <c r="G134" s="10"/>
     </row>
-    <row r="135">
+    <row r="135" spans="7:7" ht="13">
       <c r="G135" s="10"/>
     </row>
-    <row r="136">
+    <row r="136" spans="7:7" ht="13">
       <c r="G136" s="10"/>
     </row>
-    <row r="137">
+    <row r="137" spans="7:7" ht="13">
       <c r="G137" s="10"/>
     </row>
-    <row r="138">
+    <row r="138" spans="7:7" ht="13">
       <c r="G138" s="10"/>
     </row>
-    <row r="139">
+    <row r="139" spans="7:7" ht="13">
       <c r="G139" s="10"/>
     </row>
-    <row r="140">
+    <row r="140" spans="7:7" ht="13">
       <c r="G140" s="10"/>
     </row>
-    <row r="141">
+    <row r="141" spans="7:7" ht="13">
       <c r="G141" s="10"/>
     </row>
-    <row r="142">
+    <row r="142" spans="7:7" ht="13">
       <c r="G142" s="10"/>
     </row>
-    <row r="143">
+    <row r="143" spans="7:7" ht="13">
       <c r="G143" s="10"/>
     </row>
-    <row r="144">
+    <row r="144" spans="7:7" ht="13">
       <c r="G144" s="10"/>
     </row>
-    <row r="145">
+    <row r="145" spans="7:7" ht="13">
       <c r="G145" s="10"/>
     </row>
-    <row r="146">
+    <row r="146" spans="7:7" ht="13">
       <c r="G146" s="10"/>
     </row>
-    <row r="147">
+    <row r="147" spans="7:7" ht="13">
       <c r="G147" s="10"/>
     </row>
-    <row r="148">
+    <row r="148" spans="7:7" ht="13">
       <c r="G148" s="10"/>
     </row>
-    <row r="149">
+    <row r="149" spans="7:7" ht="13">
       <c r="G149" s="10"/>
     </row>
-    <row r="150">
+    <row r="150" spans="7:7" ht="13">
       <c r="G150" s="10"/>
     </row>
-    <row r="151">
+    <row r="151" spans="7:7" ht="13">
       <c r="G151" s="10"/>
     </row>
-    <row r="152">
+    <row r="152" spans="7:7" ht="13">
       <c r="G152" s="10"/>
     </row>
-    <row r="153">
+    <row r="153" spans="7:7" ht="13">
       <c r="G153" s="10"/>
     </row>
-    <row r="154">
+    <row r="154" spans="7:7" ht="13">
       <c r="G154" s="10"/>
     </row>
-    <row r="155">
+    <row r="155" spans="7:7" ht="13">
       <c r="G155" s="10"/>
     </row>
-    <row r="156">
+    <row r="156" spans="7:7" ht="13">
       <c r="G156" s="10"/>
     </row>
-    <row r="157">
+    <row r="157" spans="7:7" ht="13">
       <c r="G157" s="10"/>
     </row>
-    <row r="158">
+    <row r="158" spans="7:7" ht="13">
       <c r="G158" s="10"/>
     </row>
-    <row r="159">
+    <row r="159" spans="7:7" ht="13">
       <c r="G159" s="10"/>
     </row>
-    <row r="160">
+    <row r="160" spans="7:7" ht="13">
       <c r="G160" s="10"/>
     </row>
-    <row r="161">
+    <row r="161" spans="7:7" ht="13">
       <c r="G161" s="10"/>
     </row>
-    <row r="162">
+    <row r="162" spans="7:7" ht="13">
       <c r="G162" s="10"/>
     </row>
-    <row r="163">
+    <row r="163" spans="7:7" ht="13">
       <c r="G163" s="10"/>
     </row>
-    <row r="164">
+    <row r="164" spans="7:7" ht="13">
       <c r="G164" s="10"/>
     </row>
-    <row r="165">
+    <row r="165" spans="7:7" ht="13">
       <c r="G165" s="10"/>
     </row>
-    <row r="166">
+    <row r="166" spans="7:7" ht="13">
       <c r="G166" s="10"/>
     </row>
-    <row r="167">
+    <row r="167" spans="7:7" ht="13">
       <c r="G167" s="10"/>
     </row>
-    <row r="168">
+    <row r="168" spans="7:7" ht="13">
       <c r="G168" s="10"/>
     </row>
-    <row r="169">
+    <row r="169" spans="7:7" ht="13">
       <c r="G169" s="10"/>
     </row>
-    <row r="170">
+    <row r="170" spans="7:7" ht="13">
       <c r="G170" s="10"/>
     </row>
-    <row r="171">
+    <row r="171" spans="7:7" ht="13">
       <c r="G171" s="10"/>
     </row>
-    <row r="172">
+    <row r="172" spans="7:7" ht="13">
       <c r="G172" s="10"/>
     </row>
-    <row r="173">
+    <row r="173" spans="7:7" ht="13">
       <c r="G173" s="10"/>
     </row>
-    <row r="174">
+    <row r="174" spans="7:7" ht="13">
       <c r="G174" s="10"/>
     </row>
-    <row r="175">
+    <row r="175" spans="7:7" ht="13">
       <c r="G175" s="10"/>
     </row>
-    <row r="176">
+    <row r="176" spans="7:7" ht="13">
       <c r="G176" s="10"/>
     </row>
-    <row r="177">
+    <row r="177" spans="7:7" ht="13">
       <c r="G177" s="10"/>
     </row>
-    <row r="178">
+    <row r="178" spans="7:7" ht="13">
       <c r="G178" s="10"/>
     </row>
-    <row r="179">
+    <row r="179" spans="7:7" ht="13">
       <c r="G179" s="10"/>
     </row>
-    <row r="180">
+    <row r="180" spans="7:7" ht="13">
       <c r="G180" s="10"/>
     </row>
-    <row r="181">
+    <row r="181" spans="7:7" ht="13">
       <c r="G181" s="10"/>
     </row>
-    <row r="182">
+    <row r="182" spans="7:7" ht="13">
       <c r="G182" s="10"/>
     </row>
-    <row r="183">
+    <row r="183" spans="7:7" ht="13">
       <c r="G183" s="10"/>
     </row>
-    <row r="184">
+    <row r="184" spans="7:7" ht="13">
       <c r="G184" s="10"/>
     </row>
-    <row r="185">
+    <row r="185" spans="7:7" ht="13">
       <c r="G185" s="10"/>
     </row>
-    <row r="186">
+    <row r="186" spans="7:7" ht="13">
       <c r="G186" s="10"/>
     </row>
-    <row r="187">
+    <row r="187" spans="7:7" ht="13">
       <c r="G187" s="10"/>
     </row>
-    <row r="188">
+    <row r="188" spans="7:7" ht="13">
       <c r="G188" s="10"/>
     </row>
-    <row r="189">
+    <row r="189" spans="7:7" ht="13">
       <c r="G189" s="10"/>
     </row>
-    <row r="190">
+    <row r="190" spans="7:7" ht="13">
       <c r="G190" s="10"/>
     </row>
-    <row r="191">
+    <row r="191" spans="7:7" ht="13">
       <c r="G191" s="10"/>
     </row>
-    <row r="192">
+    <row r="192" spans="7:7" ht="13">
       <c r="G192" s="10"/>
     </row>
-    <row r="193">
+    <row r="193" spans="7:7" ht="13">
       <c r="G193" s="10"/>
     </row>
-    <row r="194">
+    <row r="194" spans="7:7" ht="13">
       <c r="G194" s="10"/>
     </row>
-    <row r="195">
+    <row r="195" spans="7:7" ht="13">
       <c r="G195" s="10"/>
     </row>
-    <row r="196">
+    <row r="196" spans="7:7" ht="13">
       <c r="G196" s="10"/>
     </row>
-    <row r="197">
+    <row r="197" spans="7:7" ht="13">
       <c r="G197" s="10"/>
     </row>
-    <row r="198">
+    <row r="198" spans="7:7" ht="13">
       <c r="G198" s="10"/>
     </row>
-    <row r="199">
+    <row r="199" spans="7:7" ht="13">
       <c r="G199" s="10"/>
     </row>
-    <row r="200">
+    <row r="200" spans="7:7" ht="13">
       <c r="G200" s="10"/>
     </row>
-    <row r="201">
+    <row r="201" spans="7:7" ht="13">
       <c r="G201" s="10"/>
     </row>
-    <row r="202">
+    <row r="202" spans="7:7" ht="13">
       <c r="G202" s="10"/>
     </row>
-    <row r="203">
+    <row r="203" spans="7:7" ht="13">
       <c r="G203" s="10"/>
     </row>
-    <row r="204">
+    <row r="204" spans="7:7" ht="13">
       <c r="G204" s="10"/>
     </row>
-    <row r="205">
+    <row r="205" spans="7:7" ht="13">
       <c r="G205" s="10"/>
     </row>
-    <row r="206">
+    <row r="206" spans="7:7" ht="13">
       <c r="G206" s="10"/>
     </row>
-    <row r="207">
+    <row r="207" spans="7:7" ht="13">
       <c r="G207" s="10"/>
     </row>
-    <row r="208">
+    <row r="208" spans="7:7" ht="13">
       <c r="G208" s="10"/>
     </row>
-    <row r="209">
+    <row r="209" spans="7:7" ht="13">
       <c r="G209" s="10"/>
     </row>
-    <row r="210">
+    <row r="210" spans="7:7" ht="13">
       <c r="G210" s="10"/>
     </row>
-    <row r="211">
+    <row r="211" spans="7:7" ht="13">
       <c r="G211" s="10"/>
     </row>
-    <row r="212">
+    <row r="212" spans="7:7" ht="13">
       <c r="G212" s="10"/>
     </row>
-    <row r="213">
+    <row r="213" spans="7:7" ht="13">
       <c r="G213" s="10"/>
     </row>
-    <row r="214">
+    <row r="214" spans="7:7" ht="13">
       <c r="G214" s="10"/>
     </row>
-    <row r="215">
+    <row r="215" spans="7:7" ht="13">
       <c r="G215" s="10"/>
     </row>
-    <row r="216">
+    <row r="216" spans="7:7" ht="13">
       <c r="G216" s="10"/>
     </row>
-    <row r="217">
+    <row r="217" spans="7:7" ht="13">
       <c r="G217" s="10"/>
     </row>
-    <row r="218">
+    <row r="218" spans="7:7" ht="13">
       <c r="G218" s="10"/>
     </row>
-    <row r="219">
+    <row r="219" spans="7:7" ht="13">
       <c r="G219" s="10"/>
     </row>
-    <row r="220">
+    <row r="220" spans="7:7" ht="13">
       <c r="G220" s="10"/>
     </row>
-    <row r="221">
+    <row r="221" spans="7:7" ht="13">
       <c r="G221" s="10"/>
     </row>
-    <row r="222">
+    <row r="222" spans="7:7" ht="13">
       <c r="G222" s="10"/>
     </row>
-    <row r="223">
+    <row r="223" spans="7:7" ht="13">
       <c r="G223" s="10"/>
     </row>
-    <row r="224">
+    <row r="224" spans="7:7" ht="13">
       <c r="G224" s="10"/>
     </row>
-    <row r="225">
+    <row r="225" spans="7:7" ht="13">
       <c r="G225" s="10"/>
     </row>
-    <row r="226">
+    <row r="226" spans="7:7" ht="13">
       <c r="G226" s="10"/>
     </row>
-    <row r="227">
+    <row r="227" spans="7:7" ht="13">
       <c r="G227" s="10"/>
     </row>
-    <row r="228">
+    <row r="228" spans="7:7" ht="13">
       <c r="G228" s="10"/>
     </row>
-    <row r="229">
+    <row r="229" spans="7:7" ht="13">
       <c r="G229" s="10"/>
     </row>
-    <row r="230">
+    <row r="230" spans="7:7" ht="13">
       <c r="G230" s="10"/>
     </row>
-    <row r="231">
+    <row r="231" spans="7:7" ht="13">
       <c r="G231" s="10"/>
     </row>
-    <row r="232">
+    <row r="232" spans="7:7" ht="13">
       <c r="G232" s="10"/>
     </row>
-    <row r="233">
+    <row r="233" spans="7:7" ht="13">
       <c r="G233" s="10"/>
     </row>
-    <row r="234">
+    <row r="234" spans="7:7" ht="13">
       <c r="G234" s="10"/>
     </row>
-    <row r="235">
+    <row r="235" spans="7:7" ht="13">
       <c r="G235" s="10"/>
     </row>
-    <row r="236">
+    <row r="236" spans="7:7" ht="13">
       <c r="G236" s="10"/>
     </row>
-    <row r="237">
+    <row r="237" spans="7:7" ht="13">
       <c r="G237" s="10"/>
     </row>
-    <row r="238">
+    <row r="238" spans="7:7" ht="13">
       <c r="G238" s="10"/>
     </row>
-    <row r="239">
+    <row r="239" spans="7:7" ht="13">
       <c r="G239" s="10"/>
     </row>
-    <row r="240">
+    <row r="240" spans="7:7" ht="13">
       <c r="G240" s="10"/>
     </row>
-    <row r="241">
+    <row r="241" spans="7:7" ht="13">
       <c r="G241" s="10"/>
     </row>
-    <row r="242">
+    <row r="242" spans="7:7" ht="13">
       <c r="G242" s="10"/>
     </row>
-    <row r="243">
+    <row r="243" spans="7:7" ht="13">
       <c r="G243" s="10"/>
     </row>
-    <row r="244">
+    <row r="244" spans="7:7" ht="13">
       <c r="G244" s="10"/>
     </row>
-    <row r="245">
+    <row r="245" spans="7:7" ht="13">
       <c r="G245" s="10"/>
     </row>
-    <row r="246">
+    <row r="246" spans="7:7" ht="13">
       <c r="G246" s="10"/>
     </row>
-    <row r="247">
+    <row r="247" spans="7:7" ht="13">
       <c r="G247" s="10"/>
     </row>
-    <row r="248">
+    <row r="248" spans="7:7" ht="13">
       <c r="G248" s="10"/>
     </row>
-    <row r="249">
+    <row r="249" spans="7:7" ht="13">
       <c r="G249" s="10"/>
     </row>
-    <row r="250">
+    <row r="250" spans="7:7" ht="13">
       <c r="G250" s="10"/>
     </row>
-    <row r="251">
+    <row r="251" spans="7:7" ht="13">
       <c r="G251" s="10"/>
     </row>
-    <row r="252">
+    <row r="252" spans="7:7" ht="13">
       <c r="G252" s="10"/>
     </row>
-    <row r="253">
+    <row r="253" spans="7:7" ht="13">
       <c r="G253" s="10"/>
     </row>
-    <row r="254">
+    <row r="254" spans="7:7" ht="13">
       <c r="G254" s="10"/>
     </row>
-    <row r="255">
+    <row r="255" spans="7:7" ht="13">
       <c r="G255" s="10"/>
     </row>
-    <row r="256">
+    <row r="256" spans="7:7" ht="13">
       <c r="G256" s="10"/>
     </row>
-    <row r="257">
+    <row r="257" spans="7:7" ht="13">
       <c r="G257" s="10"/>
     </row>
-    <row r="258">
+    <row r="258" spans="7:7" ht="13">
       <c r="G258" s="10"/>
     </row>
-    <row r="259">
+    <row r="259" spans="7:7" ht="13">
       <c r="G259" s="10"/>
     </row>
-    <row r="260">
+    <row r="260" spans="7:7" ht="13">
       <c r="G260" s="10"/>
     </row>
-    <row r="261">
+    <row r="261" spans="7:7" ht="13">
       <c r="G261" s="10"/>
     </row>
-    <row r="262">
+    <row r="262" spans="7:7" ht="13">
       <c r="G262" s="10"/>
     </row>
-    <row r="263">
+    <row r="263" spans="7:7" ht="13">
       <c r="G263" s="10"/>
     </row>
-    <row r="264">
+    <row r="264" spans="7:7" ht="13">
       <c r="G264" s="10"/>
     </row>
-    <row r="265">
+    <row r="265" spans="7:7" ht="13">
       <c r="G265" s="10"/>
     </row>
-    <row r="266">
+    <row r="266" spans="7:7" ht="13">
       <c r="G266" s="10"/>
     </row>
-    <row r="267">
+    <row r="267" spans="7:7" ht="13">
       <c r="G267" s="10"/>
     </row>
-    <row r="268">
+    <row r="268" spans="7:7" ht="13">
       <c r="G268" s="10"/>
     </row>
-    <row r="269">
+    <row r="269" spans="7:7" ht="13">
       <c r="G269" s="10"/>
     </row>
-    <row r="270">
+    <row r="270" spans="7:7" ht="13">
       <c r="G270" s="10"/>
     </row>
-    <row r="271">
+    <row r="271" spans="7:7" ht="13">
       <c r="G271" s="10"/>
     </row>
-    <row r="272">
+    <row r="272" spans="7:7" ht="13">
       <c r="G272" s="10"/>
     </row>
-    <row r="273">
+    <row r="273" spans="7:7" ht="13">
       <c r="G273" s="10"/>
     </row>
-    <row r="274">
+    <row r="274" spans="7:7" ht="13">
       <c r="G274" s="10"/>
     </row>
-    <row r="275">
+    <row r="275" spans="7:7" ht="13">
       <c r="G275" s="10"/>
     </row>
-    <row r="276">
+    <row r="276" spans="7:7" ht="13">
       <c r="G276" s="10"/>
     </row>
-    <row r="277">
+    <row r="277" spans="7:7" ht="13">
       <c r="G277" s="10"/>
     </row>
-    <row r="278">
+    <row r="278" spans="7:7" ht="13">
       <c r="G278" s="10"/>
     </row>
-    <row r="279">
+    <row r="279" spans="7:7" ht="13">
       <c r="G279" s="10"/>
     </row>
-    <row r="280">
+    <row r="280" spans="7:7" ht="13">
       <c r="G280" s="10"/>
     </row>
-    <row r="281">
+    <row r="281" spans="7:7" ht="13">
       <c r="G281" s="10"/>
     </row>
-    <row r="282">
+    <row r="282" spans="7:7" ht="13">
       <c r="G282" s="10"/>
     </row>
-    <row r="283">
+    <row r="283" spans="7:7" ht="13">
       <c r="G283" s="10"/>
     </row>
-    <row r="284">
+    <row r="284" spans="7:7" ht="13">
       <c r="G284" s="10"/>
     </row>
-    <row r="285">
+    <row r="285" spans="7:7" ht="13">
       <c r="G285" s="10"/>
     </row>
-    <row r="286">
+    <row r="286" spans="7:7" ht="13">
       <c r="G286" s="10"/>
     </row>
-    <row r="287">
+    <row r="287" spans="7:7" ht="13">
       <c r="G287" s="10"/>
     </row>
-    <row r="288">
+    <row r="288" spans="7:7" ht="13">
       <c r="G288" s="10"/>
     </row>
-    <row r="289">
+    <row r="289" spans="7:7" ht="13">
       <c r="G289" s="10"/>
     </row>
-    <row r="290">
+    <row r="290" spans="7:7" ht="13">
       <c r="G290" s="10"/>
     </row>
-    <row r="291">
+    <row r="291" spans="7:7" ht="13">
       <c r="G291" s="10"/>
     </row>
-    <row r="292">
+    <row r="292" spans="7:7" ht="13">
       <c r="G292" s="10"/>
     </row>
-    <row r="293">
+    <row r="293" spans="7:7" ht="13">
       <c r="G293" s="10"/>
     </row>
-    <row r="294">
+    <row r="294" spans="7:7" ht="13">
       <c r="G294" s="10"/>
     </row>
-    <row r="295">
+    <row r="295" spans="7:7" ht="13">
       <c r="G295" s="10"/>
     </row>
-    <row r="296">
+    <row r="296" spans="7:7" ht="13">
       <c r="G296" s="10"/>
     </row>
-    <row r="297">
+    <row r="297" spans="7:7" ht="13">
       <c r="G297" s="10"/>
     </row>
-    <row r="298">
+    <row r="298" spans="7:7" ht="13">
       <c r="G298" s="10"/>
     </row>
-    <row r="299">
+    <row r="299" spans="7:7" ht="13">
       <c r="G299" s="10"/>
     </row>
-    <row r="300">
+    <row r="300" spans="7:7" ht="13">
       <c r="G300" s="10"/>
     </row>
-    <row r="301">
+    <row r="301" spans="7:7" ht="13">
       <c r="G301" s="10"/>
     </row>
-    <row r="302">
+    <row r="302" spans="7:7" ht="13">
       <c r="G302" s="10"/>
     </row>
-    <row r="303">
+    <row r="303" spans="7:7" ht="13">
       <c r="G303" s="10"/>
     </row>
-    <row r="304">
+    <row r="304" spans="7:7" ht="13">
       <c r="G304" s="10"/>
     </row>
-    <row r="305">
+    <row r="305" spans="7:7" ht="13">
       <c r="G305" s="10"/>
     </row>
-    <row r="306">
+    <row r="306" spans="7:7" ht="13">
       <c r="G306" s="10"/>
     </row>
-    <row r="307">
+    <row r="307" spans="7:7" ht="13">
       <c r="G307" s="10"/>
     </row>
-    <row r="308">
+    <row r="308" spans="7:7" ht="13">
       <c r="G308" s="10"/>
     </row>
-    <row r="309">
+    <row r="309" spans="7:7" ht="13">
       <c r="G309" s="10"/>
     </row>
-    <row r="310">
+    <row r="310" spans="7:7" ht="13">
       <c r="G310" s="10"/>
     </row>
-    <row r="311">
+    <row r="311" spans="7:7" ht="13">
       <c r="G311" s="10"/>
     </row>
-    <row r="312">
+    <row r="312" spans="7:7" ht="13">
       <c r="G312" s="10"/>
     </row>
-    <row r="313">
+    <row r="313" spans="7:7" ht="13">
       <c r="G313" s="10"/>
     </row>
-    <row r="314">
+    <row r="314" spans="7:7" ht="13">
       <c r="G314" s="10"/>
     </row>
-    <row r="315">
+    <row r="315" spans="7:7" ht="13">
       <c r="G315" s="10"/>
     </row>
-    <row r="316">
+    <row r="316" spans="7:7" ht="13">
       <c r="G316" s="10"/>
     </row>
-    <row r="317">
+    <row r="317" spans="7:7" ht="13">
       <c r="G317" s="10"/>
     </row>
-    <row r="318">
+    <row r="318" spans="7:7" ht="13">
       <c r="G318" s="10"/>
     </row>
-    <row r="319">
+    <row r="319" spans="7:7" ht="13">
       <c r="G319" s="10"/>
     </row>
-    <row r="320">
+    <row r="320" spans="7:7" ht="13">
       <c r="G320" s="10"/>
     </row>
-    <row r="321">
+    <row r="321" spans="7:7" ht="13">
       <c r="G321" s="10"/>
     </row>
-    <row r="322">
+    <row r="322" spans="7:7" ht="13">
       <c r="G322" s="10"/>
     </row>
-    <row r="323">
+    <row r="323" spans="7:7" ht="13">
       <c r="G323" s="10"/>
     </row>
-    <row r="324">
+    <row r="324" spans="7:7" ht="13">
       <c r="G324" s="10"/>
     </row>
-    <row r="325">
+    <row r="325" spans="7:7" ht="13">
       <c r="G325" s="10"/>
     </row>
-    <row r="326">
+    <row r="326" spans="7:7" ht="13">
       <c r="G326" s="10"/>
     </row>
-    <row r="327">
+    <row r="327" spans="7:7" ht="13">
       <c r="G327" s="10"/>
     </row>
-    <row r="328">
+    <row r="328" spans="7:7" ht="13">
       <c r="G328" s="10"/>
     </row>
-    <row r="329">
+    <row r="329" spans="7:7" ht="13">
       <c r="G329" s="10"/>
     </row>
-    <row r="330">
+    <row r="330" spans="7:7" ht="13">
       <c r="G330" s="10"/>
     </row>
-    <row r="331">
+    <row r="331" spans="7:7" ht="13">
       <c r="G331" s="10"/>
     </row>
-    <row r="332">
+    <row r="332" spans="7:7" ht="13">
       <c r="G332" s="10"/>
     </row>
-    <row r="333">
+    <row r="333" spans="7:7" ht="13">
       <c r="G333" s="10"/>
     </row>
-    <row r="334">
+    <row r="334" spans="7:7" ht="13">
       <c r="G334" s="10"/>
     </row>
-    <row r="335">
+    <row r="335" spans="7:7" ht="13">
       <c r="G335" s="10"/>
     </row>
-    <row r="336">
+    <row r="336" spans="7:7" ht="13">
       <c r="G336" s="10"/>
     </row>
-    <row r="337">
+    <row r="337" spans="7:7" ht="13">
       <c r="G337" s="10"/>
     </row>
-    <row r="338">
+    <row r="338" spans="7:7" ht="13">
       <c r="G338" s="10"/>
     </row>
-    <row r="339">
+    <row r="339" spans="7:7" ht="13">
       <c r="G339" s="10"/>
     </row>
-    <row r="340">
+    <row r="340" spans="7:7" ht="13">
       <c r="G340" s="10"/>
     </row>
-    <row r="341">
+    <row r="341" spans="7:7" ht="13">
       <c r="G341" s="10"/>
     </row>
-    <row r="342">
+    <row r="342" spans="7:7" ht="13">
       <c r="G342" s="10"/>
     </row>
-    <row r="343">
+    <row r="343" spans="7:7" ht="13">
       <c r="G343" s="10"/>
     </row>
-    <row r="344">
+    <row r="344" spans="7:7" ht="13">
       <c r="G344" s="10"/>
     </row>
-    <row r="345">
+    <row r="345" spans="7:7" ht="13">
       <c r="G345" s="10"/>
     </row>
-    <row r="346">
+    <row r="346" spans="7:7" ht="13">
       <c r="G346" s="10"/>
     </row>
-    <row r="347">
+    <row r="347" spans="7:7" ht="13">
       <c r="G347" s="10"/>
     </row>
-    <row r="348">
+    <row r="348" spans="7:7" ht="13">
       <c r="G348" s="10"/>
     </row>
-    <row r="349">
+    <row r="349" spans="7:7" ht="13">
       <c r="G349" s="10"/>
     </row>
-    <row r="350">
+    <row r="350" spans="7:7" ht="13">
       <c r="G350" s="10"/>
     </row>
-    <row r="351">
+    <row r="351" spans="7:7" ht="13">
       <c r="G351" s="10"/>
     </row>
-    <row r="352">
+    <row r="352" spans="7:7" ht="13">
       <c r="G352" s="10"/>
     </row>
-    <row r="353">
+    <row r="353" spans="7:7" ht="13">
       <c r="G353" s="10"/>
     </row>
-    <row r="354">
+    <row r="354" spans="7:7" ht="13">
       <c r="G354" s="10"/>
     </row>
-    <row r="355">
+    <row r="355" spans="7:7" ht="13">
       <c r="G355" s="10"/>
     </row>
-    <row r="356">
+    <row r="356" spans="7:7" ht="13">
       <c r="G356" s="10"/>
     </row>
-    <row r="357">
+    <row r="357" spans="7:7" ht="13">
       <c r="G357" s="10"/>
     </row>
-    <row r="358">
+    <row r="358" spans="7:7" ht="13">
       <c r="G358" s="10"/>
     </row>
-    <row r="359">
+    <row r="359" spans="7:7" ht="13">
       <c r="G359" s="10"/>
     </row>
-    <row r="360">
+    <row r="360" spans="7:7" ht="13">
       <c r="G360" s="10"/>
     </row>
-    <row r="361">
+    <row r="361" spans="7:7" ht="13">
       <c r="G361" s="10"/>
     </row>
-    <row r="362">
+    <row r="362" spans="7:7" ht="13">
       <c r="G362" s="10"/>
     </row>
-    <row r="363">
+    <row r="363" spans="7:7" ht="13">
       <c r="G363" s="10"/>
     </row>
-    <row r="364">
+    <row r="364" spans="7:7" ht="13">
       <c r="G364" s="10"/>
     </row>
-    <row r="365">
+    <row r="365" spans="7:7" ht="13">
       <c r="G365" s="10"/>
     </row>
-    <row r="366">
+    <row r="366" spans="7:7" ht="13">
       <c r="G366" s="10"/>
     </row>
-    <row r="367">
+    <row r="367" spans="7:7" ht="13">
       <c r="G367" s="10"/>
     </row>
-    <row r="368">
+    <row r="368" spans="7:7" ht="13">
       <c r="G368" s="10"/>
     </row>
-    <row r="369">
+    <row r="369" spans="7:7" ht="13">
       <c r="G369" s="10"/>
     </row>
-    <row r="370">
+    <row r="370" spans="7:7" ht="13">
       <c r="G370" s="10"/>
     </row>
-    <row r="371">
+    <row r="371" spans="7:7" ht="13">
       <c r="G371" s="10"/>
     </row>
-    <row r="372">
+    <row r="372" spans="7:7" ht="13">
       <c r="G372" s="10"/>
     </row>
-    <row r="373">
+    <row r="373" spans="7:7" ht="13">
       <c r="G373" s="10"/>
     </row>
-    <row r="374">
+    <row r="374" spans="7:7" ht="13">
       <c r="G374" s="10"/>
     </row>
-    <row r="375">
+    <row r="375" spans="7:7" ht="13">
       <c r="G375" s="10"/>
     </row>
-    <row r="376">
+    <row r="376" spans="7:7" ht="13">
       <c r="G376" s="10"/>
     </row>
-    <row r="377">
+    <row r="377" spans="7:7" ht="13">
       <c r="G377" s="10"/>
     </row>
-    <row r="378">
+    <row r="378" spans="7:7" ht="13">
       <c r="G378" s="10"/>
     </row>
-    <row r="379">
+    <row r="379" spans="7:7" ht="13">
       <c r="G379" s="10"/>
     </row>
-    <row r="380">
+    <row r="380" spans="7:7" ht="13">
       <c r="G380" s="10"/>
     </row>
-    <row r="381">
+    <row r="381" spans="7:7" ht="13">
       <c r="G381" s="10"/>
     </row>
-    <row r="382">
+    <row r="382" spans="7:7" ht="13">
       <c r="G382" s="10"/>
     </row>
-    <row r="383">
+    <row r="383" spans="7:7" ht="13">
       <c r="G383" s="10"/>
     </row>
-    <row r="384">
+    <row r="384" spans="7:7" ht="13">
       <c r="G384" s="10"/>
     </row>
-    <row r="385">
+    <row r="385" spans="7:7" ht="13">
       <c r="G385" s="10"/>
     </row>
-    <row r="386">
+    <row r="386" spans="7:7" ht="13">
       <c r="G386" s="10"/>
     </row>
-    <row r="387">
+    <row r="387" spans="7:7" ht="13">
       <c r="G387" s="10"/>
     </row>
-    <row r="388">
+    <row r="388" spans="7:7" ht="13">
       <c r="G388" s="10"/>
     </row>
-    <row r="389">
+    <row r="389" spans="7:7" ht="13">
       <c r="G389" s="10"/>
     </row>
-    <row r="390">
+    <row r="390" spans="7:7" ht="13">
       <c r="G390" s="10"/>
     </row>
-    <row r="391">
+    <row r="391" spans="7:7" ht="13">
       <c r="G391" s="10"/>
     </row>
-    <row r="392">
+    <row r="392" spans="7:7" ht="13">
       <c r="G392" s="10"/>
     </row>
-    <row r="393">
+    <row r="393" spans="7:7" ht="13">
       <c r="G393" s="10"/>
     </row>
-    <row r="394">
+    <row r="394" spans="7:7" ht="13">
       <c r="G394" s="10"/>
     </row>
-    <row r="395">
+    <row r="395" spans="7:7" ht="13">
       <c r="G395" s="10"/>
     </row>
-    <row r="396">
+    <row r="396" spans="7:7" ht="13">
       <c r="G396" s="10"/>
     </row>
-    <row r="397">
+    <row r="397" spans="7:7" ht="13">
       <c r="G397" s="10"/>
     </row>
-    <row r="398">
+    <row r="398" spans="7:7" ht="13">
       <c r="G398" s="10"/>
     </row>
-    <row r="399">
+    <row r="399" spans="7:7" ht="13">
       <c r="G399" s="10"/>
     </row>
-    <row r="400">
+    <row r="400" spans="7:7" ht="13">
       <c r="G400" s="10"/>
     </row>
-    <row r="401">
+    <row r="401" spans="7:7" ht="13">
       <c r="G401" s="10"/>
     </row>
-    <row r="402">
+    <row r="402" spans="7:7" ht="13">
       <c r="G402" s="10"/>
     </row>
-    <row r="403">
+    <row r="403" spans="7:7" ht="13">
       <c r="G403" s="10"/>
     </row>
-    <row r="404">
+    <row r="404" spans="7:7" ht="13">
       <c r="G404" s="10"/>
     </row>
-    <row r="405">
+    <row r="405" spans="7:7" ht="13">
       <c r="G405" s="10"/>
     </row>
-    <row r="406">
+    <row r="406" spans="7:7" ht="13">
       <c r="G406" s="10"/>
     </row>
-    <row r="407">
+    <row r="407" spans="7:7" ht="13">
       <c r="G407" s="10"/>
     </row>
-    <row r="408">
+    <row r="408" spans="7:7" ht="13">
       <c r="G408" s="10"/>
     </row>
-    <row r="409">
+    <row r="409" spans="7:7" ht="13">
       <c r="G409" s="10"/>
     </row>
-    <row r="410">
+    <row r="410" spans="7:7" ht="13">
       <c r="G410" s="10"/>
     </row>
-    <row r="411">
+    <row r="411" spans="7:7" ht="13">
       <c r="G411" s="10"/>
     </row>
-    <row r="412">
+    <row r="412" spans="7:7" ht="13">
       <c r="G412" s="10"/>
     </row>
-    <row r="413">
+    <row r="413" spans="7:7" ht="13">
       <c r="G413" s="10"/>
     </row>
-    <row r="414">
+    <row r="414" spans="7:7" ht="13">
       <c r="G414" s="10"/>
     </row>
-    <row r="415">
+    <row r="415" spans="7:7" ht="13">
       <c r="G415" s="10"/>
     </row>
-    <row r="416">
+    <row r="416" spans="7:7" ht="13">
       <c r="G416" s="10"/>
     </row>
-    <row r="417">
+    <row r="417" spans="7:7" ht="13">
       <c r="G417" s="10"/>
     </row>
-    <row r="418">
+    <row r="418" spans="7:7" ht="13">
       <c r="G418" s="10"/>
     </row>
-    <row r="419">
+    <row r="419" spans="7:7" ht="13">
       <c r="G419" s="10"/>
     </row>
-    <row r="420">
+    <row r="420" spans="7:7" ht="13">
       <c r="G420" s="10"/>
     </row>
-    <row r="421">
+    <row r="421" spans="7:7" ht="13">
       <c r="G421" s="10"/>
     </row>
-    <row r="422">
+    <row r="422" spans="7:7" ht="13">
       <c r="G422" s="10"/>
     </row>
-    <row r="423">
+    <row r="423" spans="7:7" ht="13">
       <c r="G423" s="10"/>
     </row>
-    <row r="424">
+    <row r="424" spans="7:7" ht="13">
       <c r="G424" s="10"/>
     </row>
-    <row r="425">
+    <row r="425" spans="7:7" ht="13">
       <c r="G425" s="10"/>
     </row>
-    <row r="426">
+    <row r="426" spans="7:7" ht="13">
       <c r="G426" s="10"/>
     </row>
-    <row r="427">
+    <row r="427" spans="7:7" ht="13">
       <c r="G427" s="10"/>
     </row>
-    <row r="428">
+    <row r="428" spans="7:7" ht="13">
       <c r="G428" s="10"/>
     </row>
-    <row r="429">
+    <row r="429" spans="7:7" ht="13">
       <c r="G429" s="10"/>
     </row>
-    <row r="430">
+    <row r="430" spans="7:7" ht="13">
       <c r="G430" s="10"/>
     </row>
-    <row r="431">
+    <row r="431" spans="7:7" ht="13">
       <c r="G431" s="10"/>
     </row>
-    <row r="432">
+    <row r="432" spans="7:7" ht="13">
       <c r="G432" s="10"/>
     </row>
-    <row r="433">
+    <row r="433" spans="7:7" ht="13">
       <c r="G433" s="10"/>
     </row>
-    <row r="434">
+    <row r="434" spans="7:7" ht="13">
       <c r="G434" s="10"/>
     </row>
-    <row r="435">
+    <row r="435" spans="7:7" ht="13">
       <c r="G435" s="10"/>
     </row>
-    <row r="436">
+    <row r="436" spans="7:7" ht="13">
       <c r="G436" s="10"/>
     </row>
-    <row r="437">
+    <row r="437" spans="7:7" ht="13">
       <c r="G437" s="10"/>
     </row>
-    <row r="438">
+    <row r="438" spans="7:7" ht="13">
       <c r="G438" s="10"/>
     </row>
-    <row r="439">
+    <row r="439" spans="7:7" ht="13">
       <c r="G439" s="10"/>
     </row>
-    <row r="440">
+    <row r="440" spans="7:7" ht="13">
       <c r="G440" s="10"/>
     </row>
-    <row r="441">
+    <row r="441" spans="7:7" ht="13">
       <c r="G441" s="10"/>
     </row>
-    <row r="442">
+    <row r="442" spans="7:7" ht="13">
       <c r="G442" s="10"/>
     </row>
-    <row r="443">
+    <row r="443" spans="7:7" ht="13">
       <c r="G443" s="10"/>
     </row>
-    <row r="444">
+    <row r="444" spans="7:7" ht="13">
       <c r="G444" s="10"/>
     </row>
-    <row r="445">
+    <row r="445" spans="7:7" ht="13">
       <c r="G445" s="10"/>
     </row>
-    <row r="446">
+    <row r="446" spans="7:7" ht="13">
       <c r="G446" s="10"/>
     </row>
-    <row r="447">
+    <row r="447" spans="7:7" ht="13">
       <c r="G447" s="10"/>
     </row>
-    <row r="448">
+    <row r="448" spans="7:7" ht="13">
       <c r="G448" s="10"/>
     </row>
-    <row r="449">
+    <row r="449" spans="7:7" ht="13">
       <c r="G449" s="10"/>
     </row>
-    <row r="450">
+    <row r="450" spans="7:7" ht="13">
       <c r="G450" s="10"/>
     </row>
-    <row r="451">
+    <row r="451" spans="7:7" ht="13">
       <c r="G451" s="10"/>
     </row>
-    <row r="452">
+    <row r="452" spans="7:7" ht="13">
       <c r="G452" s="10"/>
     </row>
-    <row r="453">
+    <row r="453" spans="7:7" ht="13">
       <c r="G453" s="10"/>
     </row>
-    <row r="454">
+    <row r="454" spans="7:7" ht="13">
       <c r="G454" s="10"/>
     </row>
-    <row r="455">
+    <row r="455" spans="7:7" ht="13">
       <c r="G455" s="10"/>
     </row>
-    <row r="456">
+    <row r="456" spans="7:7" ht="13">
       <c r="G456" s="10"/>
     </row>
-    <row r="457">
+    <row r="457" spans="7:7" ht="13">
       <c r="G457" s="10"/>
     </row>
-    <row r="458">
+    <row r="458" spans="7:7" ht="13">
       <c r="G458" s="10"/>
     </row>
-    <row r="459">
+    <row r="459" spans="7:7" ht="13">
       <c r="G459" s="10"/>
     </row>
-    <row r="460">
+    <row r="460" spans="7:7" ht="13">
       <c r="G460" s="10"/>
     </row>
-    <row r="461">
+    <row r="461" spans="7:7" ht="13">
       <c r="G461" s="10"/>
     </row>
-    <row r="462">
+    <row r="462" spans="7:7" ht="13">
       <c r="G462" s="10"/>
     </row>
-    <row r="463">
+    <row r="463" spans="7:7" ht="13">
       <c r="G463" s="10"/>
     </row>
-    <row r="464">
+    <row r="464" spans="7:7" ht="13">
       <c r="G464" s="10"/>
     </row>
-    <row r="465">
+    <row r="465" spans="7:7" ht="13">
       <c r="G465" s="10"/>
     </row>
-    <row r="466">
+    <row r="466" spans="7:7" ht="13">
       <c r="G466" s="10"/>
     </row>
-    <row r="467">
+    <row r="467" spans="7:7" ht="13">
       <c r="G467" s="10"/>
     </row>
-    <row r="468">
+    <row r="468" spans="7:7" ht="13">
       <c r="G468" s="10"/>
     </row>
-    <row r="469">
+    <row r="469" spans="7:7" ht="13">
       <c r="G469" s="10"/>
     </row>
-    <row r="470">
+    <row r="470" spans="7:7" ht="13">
       <c r="G470" s="10"/>
     </row>
-    <row r="471">
+    <row r="471" spans="7:7" ht="13">
       <c r="G471" s="10"/>
     </row>
-    <row r="472">
+    <row r="472" spans="7:7" ht="13">
       <c r="G472" s="10"/>
     </row>
-    <row r="473">
+    <row r="473" spans="7:7" ht="13">
       <c r="G473" s="10"/>
     </row>
-    <row r="474">
+    <row r="474" spans="7:7" ht="13">
       <c r="G474" s="10"/>
     </row>
-    <row r="475">
+    <row r="475" spans="7:7" ht="13">
       <c r="G475" s="10"/>
     </row>
-    <row r="476">
+    <row r="476" spans="7:7" ht="13">
       <c r="G476" s="10"/>
     </row>
-    <row r="477">
+    <row r="477" spans="7:7" ht="13">
       <c r="G477" s="10"/>
     </row>
-    <row r="478">
+    <row r="478" spans="7:7" ht="13">
       <c r="G478" s="10"/>
     </row>
-    <row r="479">
+    <row r="479" spans="7:7" ht="13">
       <c r="G479" s="10"/>
     </row>
-    <row r="480">
+    <row r="480" spans="7:7" ht="13">
       <c r="G480" s="10"/>
     </row>
-    <row r="481">
+    <row r="481" spans="7:7" ht="13">
       <c r="G481" s="10"/>
     </row>
-    <row r="482">
+    <row r="482" spans="7:7" ht="13">
       <c r="G482" s="10"/>
     </row>
-    <row r="483">
+    <row r="483" spans="7:7" ht="13">
       <c r="G483" s="10"/>
     </row>
-    <row r="484">
+    <row r="484" spans="7:7" ht="13">
       <c r="G484" s="10"/>
     </row>
-    <row r="485">
+    <row r="485" spans="7:7" ht="13">
       <c r="G485" s="10"/>
     </row>
-    <row r="486">
+    <row r="486" spans="7:7" ht="13">
       <c r="G486" s="10"/>
     </row>
-    <row r="487">
+    <row r="487" spans="7:7" ht="13">
       <c r="G487" s="10"/>
     </row>
-    <row r="488">
+    <row r="488" spans="7:7" ht="13">
       <c r="G488" s="10"/>
     </row>
-    <row r="489">
+    <row r="489" spans="7:7" ht="13">
       <c r="G489" s="10"/>
     </row>
-    <row r="490">
+    <row r="490" spans="7:7" ht="13">
       <c r="G490" s="10"/>
     </row>
-    <row r="491">
+    <row r="491" spans="7:7" ht="13">
       <c r="G491" s="10"/>
     </row>
-    <row r="492">
+    <row r="492" spans="7:7" ht="13">
       <c r="G492" s="10"/>
     </row>
-    <row r="493">
+    <row r="493" spans="7:7" ht="13">
       <c r="G493" s="10"/>
     </row>
-    <row r="494">
+    <row r="494" spans="7:7" ht="13">
       <c r="G494" s="10"/>
     </row>
-    <row r="495">
+    <row r="495" spans="7:7" ht="13">
       <c r="G495" s="10"/>
     </row>
-    <row r="496">
+    <row r="496" spans="7:7" ht="13">
       <c r="G496" s="10"/>
     </row>
-    <row r="497">
+    <row r="497" spans="7:7" ht="13">
       <c r="G497" s="10"/>
     </row>
-    <row r="498">
+    <row r="498" spans="7:7" ht="13">
       <c r="G498" s="10"/>
     </row>
-    <row r="499">
+    <row r="499" spans="7:7" ht="13">
       <c r="G499" s="10"/>
     </row>
-    <row r="500">
+    <row r="500" spans="7:7" ht="13">
       <c r="G500" s="10"/>
     </row>
-    <row r="501">
+    <row r="501" spans="7:7" ht="13">
       <c r="G501" s="10"/>
     </row>
-    <row r="502">
+    <row r="502" spans="7:7" ht="13">
       <c r="G502" s="10"/>
     </row>
-    <row r="503">
+    <row r="503" spans="7:7" ht="13">
       <c r="G503" s="10"/>
     </row>
-    <row r="504">
+    <row r="504" spans="7:7" ht="13">
       <c r="G504" s="10"/>
     </row>
-    <row r="505">
+    <row r="505" spans="7:7" ht="13">
       <c r="G505" s="10"/>
     </row>
-    <row r="506">
+    <row r="506" spans="7:7" ht="13">
       <c r="G506" s="10"/>
     </row>
-    <row r="507">
+    <row r="507" spans="7:7" ht="13">
       <c r="G507" s="10"/>
     </row>
-    <row r="508">
+    <row r="508" spans="7:7" ht="13">
       <c r="G508" s="10"/>
     </row>
-    <row r="509">
+    <row r="509" spans="7:7" ht="13">
       <c r="G509" s="10"/>
     </row>
-    <row r="510">
+    <row r="510" spans="7:7" ht="13">
       <c r="G510" s="10"/>
     </row>
-    <row r="511">
+    <row r="511" spans="7:7" ht="13">
       <c r="G511" s="10"/>
     </row>
-    <row r="512">
+    <row r="512" spans="7:7" ht="13">
       <c r="G512" s="10"/>
     </row>
-    <row r="513">
+    <row r="513" spans="7:7" ht="13">
       <c r="G513" s="10"/>
     </row>
-    <row r="514">
+    <row r="514" spans="7:7" ht="13">
       <c r="G514" s="10"/>
     </row>
-    <row r="515">
+    <row r="515" spans="7:7" ht="13">
       <c r="G515" s="10"/>
     </row>
-    <row r="516">
+    <row r="516" spans="7:7" ht="13">
       <c r="G516" s="10"/>
     </row>
-    <row r="517">
+    <row r="517" spans="7:7" ht="13">
       <c r="G517" s="10"/>
     </row>
-    <row r="518">
+    <row r="518" spans="7:7" ht="13">
       <c r="G518" s="10"/>
     </row>
-    <row r="519">
+    <row r="519" spans="7:7" ht="13">
       <c r="G519" s="10"/>
     </row>
-    <row r="520">
+    <row r="520" spans="7:7" ht="13">
       <c r="G520" s="10"/>
     </row>
-    <row r="521">
+    <row r="521" spans="7:7" ht="13">
       <c r="G521" s="10"/>
     </row>
-    <row r="522">
+    <row r="522" spans="7:7" ht="13">
       <c r="G522" s="10"/>
     </row>
-    <row r="523">
+    <row r="523" spans="7:7" ht="13">
       <c r="G523" s="10"/>
     </row>
-    <row r="524">
+    <row r="524" spans="7:7" ht="13">
       <c r="G524" s="10"/>
     </row>
-    <row r="525">
+    <row r="525" spans="7:7" ht="13">
       <c r="G525" s="10"/>
     </row>
-    <row r="526">
+    <row r="526" spans="7:7" ht="13">
       <c r="G526" s="10"/>
     </row>
-    <row r="527">
+    <row r="527" spans="7:7" ht="13">
       <c r="G527" s="10"/>
     </row>
-    <row r="528">
+    <row r="528" spans="7:7" ht="13">
       <c r="G528" s="10"/>
     </row>
-    <row r="529">
+    <row r="529" spans="7:7" ht="13">
       <c r="G529" s="10"/>
     </row>
-    <row r="530">
+    <row r="530" spans="7:7" ht="13">
       <c r="G530" s="10"/>
     </row>
-    <row r="531">
+    <row r="531" spans="7:7" ht="13">
       <c r="G531" s="10"/>
     </row>
-    <row r="532">
+    <row r="532" spans="7:7" ht="13">
       <c r="G532" s="10"/>
     </row>
-    <row r="533">
+    <row r="533" spans="7:7" ht="13">
       <c r="G533" s="10"/>
     </row>
-    <row r="534">
+    <row r="534" spans="7:7" ht="13">
       <c r="G534" s="10"/>
     </row>
-    <row r="535">
+    <row r="535" spans="7:7" ht="13">
       <c r="G535" s="10"/>
     </row>
-    <row r="536">
+    <row r="536" spans="7:7" ht="13">
       <c r="G536" s="10"/>
     </row>
-    <row r="537">
+    <row r="537" spans="7:7" ht="13">
       <c r="G537" s="10"/>
     </row>
-    <row r="538">
+    <row r="538" spans="7:7" ht="13">
       <c r="G538" s="10"/>
     </row>
-    <row r="539">
+    <row r="539" spans="7:7" ht="13">
       <c r="G539" s="10"/>
     </row>
-    <row r="540">
+    <row r="540" spans="7:7" ht="13">
       <c r="G540" s="10"/>
     </row>
-    <row r="541">
+    <row r="541" spans="7:7" ht="13">
       <c r="G541" s="10"/>
     </row>
-    <row r="542">
+    <row r="542" spans="7:7" ht="13">
       <c r="G542" s="10"/>
     </row>
-    <row r="543">
+    <row r="543" spans="7:7" ht="13">
       <c r="G543" s="10"/>
     </row>
-    <row r="544">
+    <row r="544" spans="7:7" ht="13">
       <c r="G544" s="10"/>
     </row>
-    <row r="545">
+    <row r="545" spans="7:7" ht="13">
       <c r="G545" s="10"/>
     </row>
-    <row r="546">
+    <row r="546" spans="7:7" ht="13">
       <c r="G546" s="10"/>
     </row>
-    <row r="547">
+    <row r="547" spans="7:7" ht="13">
       <c r="G547" s="10"/>
     </row>
-    <row r="548">
+    <row r="548" spans="7:7" ht="13">
       <c r="G548" s="10"/>
     </row>
-    <row r="549">
+    <row r="549" spans="7:7" ht="13">
       <c r="G549" s="10"/>
     </row>
-    <row r="550">
+    <row r="550" spans="7:7" ht="13">
       <c r="G550" s="10"/>
     </row>
-    <row r="551">
+    <row r="551" spans="7:7" ht="13">
       <c r="G551" s="10"/>
     </row>
-    <row r="552">
+    <row r="552" spans="7:7" ht="13">
       <c r="G552" s="10"/>
     </row>
-    <row r="553">
+    <row r="553" spans="7:7" ht="13">
       <c r="G553" s="10"/>
     </row>
-    <row r="554">
+    <row r="554" spans="7:7" ht="13">
       <c r="G554" s="10"/>
     </row>
-    <row r="555">
+    <row r="555" spans="7:7" ht="13">
       <c r="G555" s="10"/>
     </row>
-    <row r="556">
+    <row r="556" spans="7:7" ht="13">
       <c r="G556" s="10"/>
     </row>
-    <row r="557">
+    <row r="557" spans="7:7" ht="13">
       <c r="G557" s="10"/>
     </row>
-    <row r="558">
+    <row r="558" spans="7:7" ht="13">
       <c r="G558" s="10"/>
     </row>
-    <row r="559">
+    <row r="559" spans="7:7" ht="13">
       <c r="G559" s="10"/>
     </row>
-    <row r="560">
+    <row r="560" spans="7:7" ht="13">
       <c r="G560" s="10"/>
     </row>
-    <row r="561">
+    <row r="561" spans="7:7" ht="13">
       <c r="G561" s="10"/>
     </row>
-    <row r="562">
+    <row r="562" spans="7:7" ht="13">
       <c r="G562" s="10"/>
     </row>
-    <row r="563">
+    <row r="563" spans="7:7" ht="13">
       <c r="G563" s="10"/>
     </row>
-    <row r="564">
+    <row r="564" spans="7:7" ht="13">
       <c r="G564" s="10"/>
     </row>
-    <row r="565">
+    <row r="565" spans="7:7" ht="13">
       <c r="G565" s="10"/>
     </row>
-    <row r="566">
+    <row r="566" spans="7:7" ht="13">
       <c r="G566" s="10"/>
     </row>
-    <row r="567">
+    <row r="567" spans="7:7" ht="13">
       <c r="G567" s="10"/>
     </row>
-    <row r="568">
+    <row r="568" spans="7:7" ht="13">
       <c r="G568" s="10"/>
     </row>
-    <row r="569">
+    <row r="569" spans="7:7" ht="13">
       <c r="G569" s="10"/>
     </row>
-    <row r="570">
+    <row r="570" spans="7:7" ht="13">
       <c r="G570" s="10"/>
     </row>
-    <row r="571">
+    <row r="571" spans="7:7" ht="13">
       <c r="G571" s="10"/>
     </row>
-    <row r="572">
+    <row r="572" spans="7:7" ht="13">
       <c r="G572" s="10"/>
     </row>
-    <row r="573">
+    <row r="573" spans="7:7" ht="13">
       <c r="G573" s="10"/>
     </row>
-    <row r="574">
+    <row r="574" spans="7:7" ht="13">
       <c r="G574" s="10"/>
     </row>
-    <row r="575">
+    <row r="575" spans="7:7" ht="13">
       <c r="G575" s="10"/>
     </row>
-    <row r="576">
+    <row r="576" spans="7:7" ht="13">
       <c r="G576" s="10"/>
     </row>
-    <row r="577">
+    <row r="577" spans="7:7" ht="13">
       <c r="G577" s="10"/>
     </row>
-    <row r="578">
+    <row r="578" spans="7:7" ht="13">
       <c r="G578" s="10"/>
     </row>
-    <row r="579">
+    <row r="579" spans="7:7" ht="13">
       <c r="G579" s="10"/>
     </row>
-    <row r="580">
+    <row r="580" spans="7:7" ht="13">
       <c r="G580" s="10"/>
     </row>
-    <row r="581">
+    <row r="581" spans="7:7" ht="13">
       <c r="G581" s="10"/>
     </row>
-    <row r="582">
+    <row r="582" spans="7:7" ht="13">
       <c r="G582" s="10"/>
     </row>
-    <row r="583">
+    <row r="583" spans="7:7" ht="13">
       <c r="G583" s="10"/>
     </row>
-    <row r="584">
+    <row r="584" spans="7:7" ht="13">
       <c r="G584" s="10"/>
     </row>
-    <row r="585">
+    <row r="585" spans="7:7" ht="13">
       <c r="G585" s="10"/>
     </row>
-    <row r="586">
+    <row r="586" spans="7:7" ht="13">
       <c r="G586" s="10"/>
     </row>
-    <row r="587">
+    <row r="587" spans="7:7" ht="13">
       <c r="G587" s="10"/>
     </row>
-    <row r="588">
+    <row r="588" spans="7:7" ht="13">
       <c r="G588" s="10"/>
     </row>
-    <row r="589">
+    <row r="589" spans="7:7" ht="13">
       <c r="G589" s="10"/>
     </row>
-    <row r="590">
+    <row r="590" spans="7:7" ht="13">
       <c r="G590" s="10"/>
     </row>
-    <row r="591">
+    <row r="591" spans="7:7" ht="13">
       <c r="G591" s="10"/>
     </row>
-    <row r="592">
+    <row r="592" spans="7:7" ht="13">
       <c r="G592" s="10"/>
     </row>
-    <row r="593">
+    <row r="593" spans="7:7" ht="13">
       <c r="G593" s="10"/>
     </row>
-    <row r="594">
+    <row r="594" spans="7:7" ht="13">
       <c r="G594" s="10"/>
     </row>
-    <row r="595">
+    <row r="595" spans="7:7" ht="13">
       <c r="G595" s="10"/>
     </row>
-    <row r="596">
+    <row r="596" spans="7:7" ht="13">
       <c r="G596" s="10"/>
     </row>
-    <row r="597">
+    <row r="597" spans="7:7" ht="13">
       <c r="G597" s="10"/>
     </row>
-    <row r="598">
+    <row r="598" spans="7:7" ht="13">
       <c r="G598" s="10"/>
     </row>
-    <row r="599">
+    <row r="599" spans="7:7" ht="13">
       <c r="G599" s="10"/>
     </row>
-    <row r="600">
+    <row r="600" spans="7:7" ht="13">
       <c r="G600" s="10"/>
     </row>
-    <row r="601">
+    <row r="601" spans="7:7" ht="13">
       <c r="G601" s="10"/>
     </row>
-    <row r="602">
+    <row r="602" spans="7:7" ht="13">
       <c r="G602" s="10"/>
     </row>
-    <row r="603">
+    <row r="603" spans="7:7" ht="13">
       <c r="G603" s="10"/>
     </row>
-    <row r="604">
+    <row r="604" spans="7:7" ht="13">
       <c r="G604" s="10"/>
     </row>
-    <row r="605">
+    <row r="605" spans="7:7" ht="13">
       <c r="G605" s="10"/>
     </row>
-    <row r="606">
+    <row r="606" spans="7:7" ht="13">
       <c r="G606" s="10"/>
     </row>
-    <row r="607">
+    <row r="607" spans="7:7" ht="13">
       <c r="G607" s="10"/>
     </row>
-    <row r="608">
+    <row r="608" spans="7:7" ht="13">
       <c r="G608" s="10"/>
     </row>
-    <row r="609">
+    <row r="609" spans="7:7" ht="13">
       <c r="G609" s="10"/>
     </row>
-    <row r="610">
+    <row r="610" spans="7:7" ht="13">
       <c r="G610" s="10"/>
     </row>
-    <row r="611">
+    <row r="611" spans="7:7" ht="13">
       <c r="G611" s="10"/>
     </row>
-    <row r="612">
+    <row r="612" spans="7:7" ht="13">
       <c r="G612" s="10"/>
     </row>
-    <row r="613">
+    <row r="613" spans="7:7" ht="13">
       <c r="G613" s="10"/>
     </row>
-    <row r="614">
+    <row r="614" spans="7:7" ht="13">
       <c r="G614" s="10"/>
     </row>
-    <row r="615">
+    <row r="615" spans="7:7" ht="13">
       <c r="G615" s="10"/>
     </row>
-    <row r="616">
+    <row r="616" spans="7:7" ht="13">
       <c r="G616" s="10"/>
     </row>
-    <row r="617">
+    <row r="617" spans="7:7" ht="13">
       <c r="G617" s="10"/>
     </row>
-    <row r="618">
+    <row r="618" spans="7:7" ht="13">
       <c r="G618" s="10"/>
     </row>
-    <row r="619">
+    <row r="619" spans="7:7" ht="13">
       <c r="G619" s="10"/>
     </row>
-    <row r="620">
+    <row r="620" spans="7:7" ht="13">
       <c r="G620" s="10"/>
     </row>
-    <row r="621">
+    <row r="621" spans="7:7" ht="13">
       <c r="G621" s="10"/>
     </row>
-    <row r="622">
+    <row r="622" spans="7:7" ht="13">
       <c r="G622" s="10"/>
     </row>
-    <row r="623">
+    <row r="623" spans="7:7" ht="13">
       <c r="G623" s="10"/>
     </row>
-    <row r="624">
+    <row r="624" spans="7:7" ht="13">
       <c r="G624" s="10"/>
     </row>
-    <row r="625">
+    <row r="625" spans="7:7" ht="13">
       <c r="G625" s="10"/>
     </row>
-    <row r="626">
+    <row r="626" spans="7:7" ht="13">
       <c r="G626" s="10"/>
     </row>
-    <row r="627">
+    <row r="627" spans="7:7" ht="13">
       <c r="G627" s="10"/>
     </row>
-    <row r="628">
+    <row r="628" spans="7:7" ht="13">
       <c r="G628" s="10"/>
     </row>
-    <row r="629">
+    <row r="629" spans="7:7" ht="13">
       <c r="G629" s="10"/>
     </row>
-    <row r="630">
+    <row r="630" spans="7:7" ht="13">
       <c r="G630" s="10"/>
     </row>
-    <row r="631">
+    <row r="631" spans="7:7" ht="13">
       <c r="G631" s="10"/>
     </row>
-    <row r="632">
+    <row r="632" spans="7:7" ht="13">
       <c r="G632" s="10"/>
     </row>
-    <row r="633">
+    <row r="633" spans="7:7" ht="13">
       <c r="G633" s="10"/>
     </row>
-    <row r="634">
+    <row r="634" spans="7:7" ht="13">
       <c r="G634" s="10"/>
     </row>
-    <row r="635">
+    <row r="635" spans="7:7" ht="13">
       <c r="G635" s="10"/>
     </row>
-    <row r="636">
+    <row r="636" spans="7:7" ht="13">
       <c r="G636" s="10"/>
     </row>
-    <row r="637">
+    <row r="637" spans="7:7" ht="13">
       <c r="G637" s="10"/>
     </row>
-    <row r="638">
+    <row r="638" spans="7:7" ht="13">
       <c r="G638" s="10"/>
     </row>
-    <row r="639">
+    <row r="639" spans="7:7" ht="13">
       <c r="G639" s="10"/>
     </row>
-    <row r="640">
+    <row r="640" spans="7:7" ht="13">
       <c r="G640" s="10"/>
     </row>
-    <row r="641">
+    <row r="641" spans="7:7" ht="13">
       <c r="G641" s="10"/>
     </row>
-    <row r="642">
+    <row r="642" spans="7:7" ht="13">
       <c r="G642" s="10"/>
     </row>
-    <row r="643">
+    <row r="643" spans="7:7" ht="13">
       <c r="G643" s="10"/>
     </row>
-    <row r="644">
+    <row r="644" spans="7:7" ht="13">
       <c r="G644" s="10"/>
     </row>
-    <row r="645">
+    <row r="645" spans="7:7" ht="13">
       <c r="G645" s="10"/>
     </row>
-    <row r="646">
+    <row r="646" spans="7:7" ht="13">
       <c r="G646" s="10"/>
     </row>
-    <row r="647">
+    <row r="647" spans="7:7" ht="13">
       <c r="G647" s="10"/>
     </row>
-    <row r="648">
+    <row r="648" spans="7:7" ht="13">
       <c r="G648" s="10"/>
     </row>
-    <row r="649">
+    <row r="649" spans="7:7" ht="13">
       <c r="G649" s="10"/>
     </row>
-    <row r="650">
+    <row r="650" spans="7:7" ht="13">
       <c r="G650" s="10"/>
     </row>
-    <row r="651">
+    <row r="651" spans="7:7" ht="13">
       <c r="G651" s="10"/>
     </row>
-    <row r="652">
+    <row r="652" spans="7:7" ht="13">
       <c r="G652" s="10"/>
     </row>
-    <row r="653">
+    <row r="653" spans="7:7" ht="13">
       <c r="G653" s="10"/>
     </row>
-    <row r="654">
+    <row r="654" spans="7:7" ht="13">
       <c r="G654" s="10"/>
     </row>
-    <row r="655">
+    <row r="655" spans="7:7" ht="13">
       <c r="G655" s="10"/>
     </row>
-    <row r="656">
+    <row r="656" spans="7:7" ht="13">
       <c r="G656" s="10"/>
     </row>
-    <row r="657">
+    <row r="657" spans="7:7" ht="13">
       <c r="G657" s="10"/>
     </row>
-    <row r="658">
+    <row r="658" spans="7:7" ht="13">
       <c r="G658" s="10"/>
     </row>
-    <row r="659">
+    <row r="659" spans="7:7" ht="13">
       <c r="G659" s="10"/>
     </row>
-    <row r="660">
+    <row r="660" spans="7:7" ht="13">
       <c r="G660" s="10"/>
     </row>
-    <row r="661">
+    <row r="661" spans="7:7" ht="13">
       <c r="G661" s="10"/>
     </row>
-    <row r="662">
+    <row r="662" spans="7:7" ht="13">
       <c r="G662" s="10"/>
     </row>
-    <row r="663">
+    <row r="663" spans="7:7" ht="13">
       <c r="G663" s="10"/>
     </row>
-    <row r="664">
+    <row r="664" spans="7:7" ht="13">
       <c r="G664" s="10"/>
     </row>
-    <row r="665">
+    <row r="665" spans="7:7" ht="13">
       <c r="G665" s="10"/>
     </row>
-    <row r="666">
+    <row r="666" spans="7:7" ht="13">
       <c r="G666" s="10"/>
     </row>
-    <row r="667">
+    <row r="667" spans="7:7" ht="13">
       <c r="G667" s="10"/>
     </row>
-    <row r="668">
+    <row r="668" spans="7:7" ht="13">
       <c r="G668" s="10"/>
     </row>
-    <row r="669">
+    <row r="669" spans="7:7" ht="13">
       <c r="G669" s="10"/>
     </row>
-    <row r="670">
+    <row r="670" spans="7:7" ht="13">
       <c r="G670" s="10"/>
     </row>
-    <row r="671">
+    <row r="671" spans="7:7" ht="13">
       <c r="G671" s="10"/>
     </row>
-    <row r="672">
+    <row r="672" spans="7:7" ht="13">
       <c r="G672" s="10"/>
     </row>
-    <row r="673">
+    <row r="673" spans="7:7" ht="13">
       <c r="G673" s="10"/>
     </row>
-    <row r="674">
+    <row r="674" spans="7:7" ht="13">
       <c r="G674" s="10"/>
     </row>
-    <row r="675">
+    <row r="675" spans="7:7" ht="13">
       <c r="G675" s="10"/>
     </row>
-    <row r="676">
+    <row r="676" spans="7:7" ht="13">
       <c r="G676" s="10"/>
     </row>
-    <row r="677">
+    <row r="677" spans="7:7" ht="13">
       <c r="G677" s="10"/>
     </row>
-    <row r="678">
+    <row r="678" spans="7:7" ht="13">
       <c r="G678" s="10"/>
     </row>
-    <row r="679">
+    <row r="679" spans="7:7" ht="13">
       <c r="G679" s="10"/>
     </row>
-    <row r="680">
+    <row r="680" spans="7:7" ht="13">
       <c r="G680" s="10"/>
     </row>
-    <row r="681">
+    <row r="681" spans="7:7" ht="13">
       <c r="G681" s="10"/>
     </row>
-    <row r="682">
+    <row r="682" spans="7:7" ht="13">
       <c r="G682" s="10"/>
     </row>
-    <row r="683">
+    <row r="683" spans="7:7" ht="13">
       <c r="G683" s="10"/>
     </row>
-    <row r="684">
+    <row r="684" spans="7:7" ht="13">
       <c r="G684" s="10"/>
     </row>
-    <row r="685">
+    <row r="685" spans="7:7" ht="13">
       <c r="G685" s="10"/>
     </row>
-    <row r="686">
+    <row r="686" spans="7:7" ht="13">
       <c r="G686" s="10"/>
     </row>
-    <row r="687">
+    <row r="687" spans="7:7" ht="13">
       <c r="G687" s="10"/>
     </row>
-    <row r="688">
+    <row r="688" spans="7:7" ht="13">
       <c r="G688" s="10"/>
     </row>
-    <row r="689">
+    <row r="689" spans="7:7" ht="13">
       <c r="G689" s="10"/>
     </row>
-    <row r="690">
+    <row r="690" spans="7:7" ht="13">
       <c r="G690" s="10"/>
     </row>
-    <row r="691">
+    <row r="691" spans="7:7" ht="13">
       <c r="G691" s="10"/>
     </row>
-    <row r="692">
+    <row r="692" spans="7:7" ht="13">
       <c r="G692" s="10"/>
     </row>
-    <row r="693">
+    <row r="693" spans="7:7" ht="13">
       <c r="G693" s="10"/>
     </row>
-    <row r="694">
+    <row r="694" spans="7:7" ht="13">
       <c r="G694" s="10"/>
     </row>
-    <row r="695">
+    <row r="695" spans="7:7" ht="13">
       <c r="G695" s="10"/>
     </row>
-    <row r="696">
+    <row r="696" spans="7:7" ht="13">
       <c r="G696" s="10"/>
     </row>
-    <row r="697">
+    <row r="697" spans="7:7" ht="13">
       <c r="G697" s="10"/>
     </row>
-    <row r="698">
+    <row r="698" spans="7:7" ht="13">
       <c r="G698" s="10"/>
     </row>
-    <row r="699">
+    <row r="699" spans="7:7" ht="13">
       <c r="G699" s="10"/>
     </row>
-    <row r="700">
+    <row r="700" spans="7:7" ht="13">
       <c r="G700" s="10"/>
     </row>
-    <row r="701">
+    <row r="701" spans="7:7" ht="13">
       <c r="G701" s="10"/>
     </row>
-    <row r="702">
+    <row r="702" spans="7:7" ht="13">
       <c r="G702" s="10"/>
     </row>
-    <row r="703">
+    <row r="703" spans="7:7" ht="13">
       <c r="G703" s="10"/>
     </row>
-    <row r="704">
+    <row r="704" spans="7:7" ht="13">
       <c r="G704" s="10"/>
     </row>
-    <row r="705">
+    <row r="705" spans="7:7" ht="13">
       <c r="G705" s="10"/>
     </row>
-    <row r="706">
+    <row r="706" spans="7:7" ht="13">
       <c r="G706" s="10"/>
     </row>
-    <row r="707">
+    <row r="707" spans="7:7" ht="13">
       <c r="G707" s="10"/>
     </row>
-    <row r="708">
+    <row r="708" spans="7:7" ht="13">
       <c r="G708" s="10"/>
     </row>
-    <row r="709">
+    <row r="709" spans="7:7" ht="13">
       <c r="G709" s="10"/>
     </row>
-    <row r="710">
+    <row r="710" spans="7:7" ht="13">
       <c r="G710" s="10"/>
     </row>
-    <row r="711">
+    <row r="711" spans="7:7" ht="13">
       <c r="G711" s="10"/>
     </row>
-    <row r="712">
+    <row r="712" spans="7:7" ht="13">
       <c r="G712" s="10"/>
     </row>
-    <row r="713">
+    <row r="713" spans="7:7" ht="13">
       <c r="G713" s="10"/>
     </row>
-    <row r="714">
+    <row r="714" spans="7:7" ht="13">
       <c r="G714" s="10"/>
     </row>
-    <row r="715">
+    <row r="715" spans="7:7" ht="13">
       <c r="G715" s="10"/>
     </row>
-    <row r="716">
+    <row r="716" spans="7:7" ht="13">
       <c r="G716" s="10"/>
     </row>
-    <row r="717">
+    <row r="717" spans="7:7" ht="13">
       <c r="G717" s="10"/>
     </row>
-    <row r="718">
+    <row r="718" spans="7:7" ht="13">
       <c r="G718" s="10"/>
     </row>
-    <row r="719">
+    <row r="719" spans="7:7" ht="13">
       <c r="G719" s="10"/>
     </row>
-    <row r="720">
+    <row r="720" spans="7:7" ht="13">
       <c r="G720" s="10"/>
     </row>
-    <row r="721">
+    <row r="721" spans="7:7" ht="13">
       <c r="G721" s="10"/>
     </row>
-    <row r="722">
+    <row r="722" spans="7:7" ht="13">
       <c r="G722" s="10"/>
     </row>
-    <row r="723">
+    <row r="723" spans="7:7" ht="13">
       <c r="G723" s="10"/>
     </row>
-    <row r="724">
+    <row r="724" spans="7:7" ht="13">
       <c r="G724" s="10"/>
     </row>
-    <row r="725">
+    <row r="725" spans="7:7" ht="13">
       <c r="G725" s="10"/>
     </row>
-    <row r="726">
+    <row r="726" spans="7:7" ht="13">
       <c r="G726" s="10"/>
     </row>
-    <row r="727">
+    <row r="727" spans="7:7" ht="13">
       <c r="G727" s="10"/>
     </row>
-    <row r="728">
+    <row r="728" spans="7:7" ht="13">
       <c r="G728" s="10"/>
     </row>
-    <row r="729">
+    <row r="729" spans="7:7" ht="13">
       <c r="G729" s="10"/>
     </row>
-    <row r="730">
+    <row r="730" spans="7:7" ht="13">
       <c r="G730" s="10"/>
     </row>
-    <row r="731">
+    <row r="731" spans="7:7" ht="13">
       <c r="G731" s="10"/>
     </row>
-    <row r="732">
+    <row r="732" spans="7:7" ht="13">
       <c r="G732" s="10"/>
     </row>
-    <row r="733">
+    <row r="733" spans="7:7" ht="13">
       <c r="G733" s="10"/>
     </row>
-    <row r="734">
+    <row r="734" spans="7:7" ht="13">
       <c r="G734" s="10"/>
     </row>
-    <row r="735">
+    <row r="735" spans="7:7" ht="13">
       <c r="G735" s="10"/>
     </row>
-    <row r="736">
+    <row r="736" spans="7:7" ht="13">
       <c r="G736" s="10"/>
     </row>
-    <row r="737">
+    <row r="737" spans="7:7" ht="13">
       <c r="G737" s="10"/>
     </row>
-    <row r="738">
+    <row r="738" spans="7:7" ht="13">
       <c r="G738" s="10"/>
     </row>
-    <row r="739">
+    <row r="739" spans="7:7" ht="13">
       <c r="G739" s="10"/>
     </row>
-    <row r="740">
+    <row r="740" spans="7:7" ht="13">
       <c r="G740" s="10"/>
     </row>
-    <row r="741">
+    <row r="741" spans="7:7" ht="13">
       <c r="G741" s="10"/>
     </row>
-    <row r="742">
+    <row r="742" spans="7:7" ht="13">
       <c r="G742" s="10"/>
     </row>
-    <row r="743">
+    <row r="743" spans="7:7" ht="13">
       <c r="G743" s="10"/>
     </row>
-    <row r="744">
+    <row r="744" spans="7:7" ht="13">
       <c r="G744" s="10"/>
     </row>
-    <row r="745">
+    <row r="745" spans="7:7" ht="13">
       <c r="G745" s="10"/>
     </row>
-    <row r="746">
+    <row r="746" spans="7:7" ht="13">
       <c r="G746" s="10"/>
     </row>
-    <row r="747">
+    <row r="747" spans="7:7" ht="13">
       <c r="G747" s="10"/>
     </row>
-    <row r="748">
+    <row r="748" spans="7:7" ht="13">
       <c r="G748" s="10"/>
     </row>
-    <row r="749">
+    <row r="749" spans="7:7" ht="13">
       <c r="G749" s="10"/>
     </row>
-    <row r="750">
+    <row r="750" spans="7:7" ht="13">
       <c r="G750" s="10"/>
     </row>
-    <row r="751">
+    <row r="751" spans="7:7" ht="13">
       <c r="G751" s="10"/>
     </row>
-    <row r="752">
+    <row r="752" spans="7:7" ht="13">
       <c r="G752" s="10"/>
     </row>
-    <row r="753">
+    <row r="753" spans="7:7" ht="13">
       <c r="G753" s="10"/>
     </row>
-    <row r="754">
+    <row r="754" spans="7:7" ht="13">
       <c r="G754" s="10"/>
     </row>
-    <row r="755">
+    <row r="755" spans="7:7" ht="13">
       <c r="G755" s="10"/>
     </row>
-    <row r="756">
+    <row r="756" spans="7:7" ht="13">
       <c r="G756" s="10"/>
     </row>
-    <row r="757">
+    <row r="757" spans="7:7" ht="13">
       <c r="G757" s="10"/>
     </row>
-    <row r="758">
+    <row r="758" spans="7:7" ht="13">
       <c r="G758" s="10"/>
     </row>
-    <row r="759">
+    <row r="759" spans="7:7" ht="13">
       <c r="G759" s="10"/>
     </row>
-    <row r="760">
+    <row r="760" spans="7:7" ht="13">
       <c r="G760" s="10"/>
     </row>
-    <row r="761">
+    <row r="761" spans="7:7" ht="13">
       <c r="G761" s="10"/>
     </row>
-    <row r="762">
+    <row r="762" spans="7:7" ht="13">
       <c r="G762" s="10"/>
     </row>
-    <row r="763">
+    <row r="763" spans="7:7" ht="13">
       <c r="G763" s="10"/>
     </row>
-    <row r="764">
+    <row r="764" spans="7:7" ht="13">
       <c r="G764" s="10"/>
     </row>
-    <row r="765">
+    <row r="765" spans="7:7" ht="13">
       <c r="G765" s="10"/>
     </row>
-    <row r="766">
+    <row r="766" spans="7:7" ht="13">
       <c r="G766" s="10"/>
     </row>
-    <row r="767">
+    <row r="767" spans="7:7" ht="13">
       <c r="G767" s="10"/>
     </row>
-    <row r="768">
+    <row r="768" spans="7:7" ht="13">
       <c r="G768" s="10"/>
     </row>
-    <row r="769">
+    <row r="769" spans="7:7" ht="13">
       <c r="G769" s="10"/>
     </row>
-    <row r="770">
+    <row r="770" spans="7:7" ht="13">
       <c r="G770" s="10"/>
     </row>
-    <row r="771">
+    <row r="771" spans="7:7" ht="13">
       <c r="G771" s="10"/>
     </row>
-    <row r="772">
+    <row r="772" spans="7:7" ht="13">
       <c r="G772" s="10"/>
     </row>
-    <row r="773">
+    <row r="773" spans="7:7" ht="13">
       <c r="G773" s="10"/>
     </row>
-    <row r="774">
+    <row r="774" spans="7:7" ht="13">
       <c r="G774" s="10"/>
     </row>
-    <row r="775">
+    <row r="775" spans="7:7" ht="13">
       <c r="G775" s="10"/>
     </row>
-    <row r="776">
+    <row r="776" spans="7:7" ht="13">
       <c r="G776" s="10"/>
     </row>
-    <row r="777">
+    <row r="777" spans="7:7" ht="13">
       <c r="G777" s="10"/>
     </row>
-    <row r="778">
+    <row r="778" spans="7:7" ht="13">
       <c r="G778" s="10"/>
     </row>
-    <row r="779">
+    <row r="779" spans="7:7" ht="13">
       <c r="G779" s="10"/>
     </row>
-    <row r="780">
+    <row r="780" spans="7:7" ht="13">
       <c r="G780" s="10"/>
     </row>
-    <row r="781">
+    <row r="781" spans="7:7" ht="13">
       <c r="G781" s="10"/>
     </row>
-    <row r="782">
+    <row r="782" spans="7:7" ht="13">
       <c r="G782" s="10"/>
     </row>
-    <row r="783">
+    <row r="783" spans="7:7" ht="13">
       <c r="G783" s="10"/>
     </row>
-    <row r="784">
+    <row r="784" spans="7:7" ht="13">
       <c r="G784" s="10"/>
     </row>
-    <row r="785">
+    <row r="785" spans="7:7" ht="13">
       <c r="G785" s="10"/>
     </row>
-    <row r="786">
+    <row r="786" spans="7:7" ht="13">
       <c r="G786" s="10"/>
     </row>
-    <row r="787">
+    <row r="787" spans="7:7" ht="13">
       <c r="G787" s="10"/>
     </row>
-    <row r="788">
+    <row r="788" spans="7:7" ht="13">
       <c r="G788" s="10"/>
     </row>
-    <row r="789">
+    <row r="789" spans="7:7" ht="13">
       <c r="G789" s="10"/>
     </row>
-    <row r="790">
+    <row r="790" spans="7:7" ht="13">
       <c r="G790" s="10"/>
     </row>
-    <row r="791">
+    <row r="791" spans="7:7" ht="13">
       <c r="G791" s="10"/>
     </row>
-    <row r="792">
+    <row r="792" spans="7:7" ht="13">
       <c r="G792" s="10"/>
     </row>
-    <row r="793">
+    <row r="793" spans="7:7" ht="13">
       <c r="G793" s="10"/>
     </row>
-    <row r="794">
+    <row r="794" spans="7:7" ht="13">
       <c r="G794" s="10"/>
     </row>
-    <row r="795">
+    <row r="795" spans="7:7" ht="13">
       <c r="G795" s="10"/>
     </row>
-    <row r="796">
+    <row r="796" spans="7:7" ht="13">
       <c r="G796" s="10"/>
     </row>
-    <row r="797">
+    <row r="797" spans="7:7" ht="13">
       <c r="G797" s="10"/>
     </row>
-    <row r="798">
+    <row r="798" spans="7:7" ht="13">
       <c r="G798" s="10"/>
     </row>
-    <row r="799">
+    <row r="799" spans="7:7" ht="13">
       <c r="G799" s="10"/>
     </row>
-    <row r="800">
+    <row r="800" spans="7:7" ht="13">
       <c r="G800" s="10"/>
     </row>
-    <row r="801">
+    <row r="801" spans="7:7" ht="13">
       <c r="G801" s="10"/>
     </row>
-    <row r="802">
+    <row r="802" spans="7:7" ht="13">
       <c r="G802" s="10"/>
     </row>
-    <row r="803">
+    <row r="803" spans="7:7" ht="13">
       <c r="G803" s="10"/>
     </row>
-    <row r="804">
+    <row r="804" spans="7:7" ht="13">
       <c r="G804" s="10"/>
     </row>
-    <row r="805">
+    <row r="805" spans="7:7" ht="13">
       <c r="G805" s="10"/>
     </row>
-    <row r="806">
+    <row r="806" spans="7:7" ht="13">
       <c r="G806" s="10"/>
     </row>
-    <row r="807">
+    <row r="807" spans="7:7" ht="13">
       <c r="G807" s="10"/>
     </row>
-    <row r="808">
+    <row r="808" spans="7:7" ht="13">
       <c r="G808" s="10"/>
     </row>
-    <row r="809">
+    <row r="809" spans="7:7" ht="13">
       <c r="G809" s="10"/>
     </row>
-    <row r="810">
+    <row r="810" spans="7:7" ht="13">
       <c r="G810" s="10"/>
     </row>
-    <row r="811">
+    <row r="811" spans="7:7" ht="13">
       <c r="G811" s="10"/>
     </row>
-    <row r="812">
+    <row r="812" spans="7:7" ht="13">
       <c r="G812" s="10"/>
     </row>
-    <row r="813">
+    <row r="813" spans="7:7" ht="13">
       <c r="G813" s="10"/>
     </row>
-    <row r="814">
+    <row r="814" spans="7:7" ht="13">
       <c r="G814" s="10"/>
     </row>
-    <row r="815">
+    <row r="815" spans="7:7" ht="13">
       <c r="G815" s="10"/>
     </row>
-    <row r="816">
+    <row r="816" spans="7:7" ht="13">
       <c r="G816" s="10"/>
     </row>
-    <row r="817">
+    <row r="817" spans="7:7" ht="13">
       <c r="G817" s="10"/>
     </row>
-    <row r="818">
+    <row r="818" spans="7:7" ht="13">
       <c r="G818" s="10"/>
     </row>
-    <row r="819">
+    <row r="819" spans="7:7" ht="13">
       <c r="G819" s="10"/>
     </row>
-    <row r="820">
+    <row r="820" spans="7:7" ht="13">
       <c r="G820" s="10"/>
     </row>
-    <row r="821">
+    <row r="821" spans="7:7" ht="13">
       <c r="G821" s="10"/>
     </row>
-    <row r="822">
+    <row r="822" spans="7:7" ht="13">
       <c r="G822" s="10"/>
     </row>
-    <row r="823">
+    <row r="823" spans="7:7" ht="13">
       <c r="G823" s="10"/>
     </row>
-    <row r="824">
+    <row r="824" spans="7:7" ht="13">
       <c r="G824" s="10"/>
     </row>
-    <row r="825">
+    <row r="825" spans="7:7" ht="13">
       <c r="G825" s="10"/>
     </row>
-    <row r="826">
+    <row r="826" spans="7:7" ht="13">
       <c r="G826" s="10"/>
     </row>
-    <row r="827">
+    <row r="827" spans="7:7" ht="13">
       <c r="G827" s="10"/>
     </row>
-    <row r="828">
+    <row r="828" spans="7:7" ht="13">
       <c r="G828" s="10"/>
     </row>
-    <row r="829">
+    <row r="829" spans="7:7" ht="13">
       <c r="G829" s="10"/>
     </row>
-    <row r="830">
+    <row r="830" spans="7:7" ht="13">
       <c r="G830" s="10"/>
     </row>
-    <row r="831">
+    <row r="831" spans="7:7" ht="13">
       <c r="G831" s="10"/>
     </row>
-    <row r="832">
+    <row r="832" spans="7:7" ht="13">
       <c r="G832" s="10"/>
     </row>
-    <row r="833">
+    <row r="833" spans="7:7" ht="13">
       <c r="G833" s="10"/>
     </row>
-    <row r="834">
+    <row r="834" spans="7:7" ht="13">
       <c r="G834" s="10"/>
     </row>
-    <row r="835">
+    <row r="835" spans="7:7" ht="13">
       <c r="G835" s="10"/>
     </row>
-    <row r="836">
+    <row r="836" spans="7:7" ht="13">
       <c r="G836" s="10"/>
     </row>
-    <row r="837">
+    <row r="837" spans="7:7" ht="13">
       <c r="G837" s="10"/>
     </row>
-    <row r="838">
+    <row r="838" spans="7:7" ht="13">
       <c r="G838" s="10"/>
     </row>
-    <row r="839">
+    <row r="839" spans="7:7" ht="13">
       <c r="G839" s="10"/>
     </row>
-    <row r="840">
+    <row r="840" spans="7:7" ht="13">
       <c r="G840" s="10"/>
     </row>
-    <row r="841">
+    <row r="841" spans="7:7" ht="13">
       <c r="G841" s="10"/>
     </row>
-    <row r="842">
+    <row r="842" spans="7:7" ht="13">
       <c r="G842" s="10"/>
     </row>
-    <row r="843">
+    <row r="843" spans="7:7" ht="13">
       <c r="G843" s="10"/>
     </row>
-    <row r="844">
+    <row r="844" spans="7:7" ht="13">
       <c r="G844" s="10"/>
     </row>
-    <row r="845">
+    <row r="845" spans="7:7" ht="13">
       <c r="G845" s="10"/>
     </row>
-    <row r="846">
+    <row r="846" spans="7:7" ht="13">
       <c r="G846" s="10"/>
     </row>
-    <row r="847">
+    <row r="847" spans="7:7" ht="13">
       <c r="G847" s="10"/>
     </row>
-    <row r="848">
+    <row r="848" spans="7:7" ht="13">
       <c r="G848" s="10"/>
     </row>
-    <row r="849">
+    <row r="849" spans="7:7" ht="13">
       <c r="G849" s="10"/>
     </row>
-    <row r="850">
+    <row r="850" spans="7:7" ht="13">
       <c r="G850" s="10"/>
     </row>
-    <row r="851">
+    <row r="851" spans="7:7" ht="13">
       <c r="G851" s="10"/>
     </row>
-    <row r="852">
+    <row r="852" spans="7:7" ht="13">
       <c r="G852" s="10"/>
     </row>
-    <row r="853">
+    <row r="853" spans="7:7" ht="13">
       <c r="G853" s="10"/>
     </row>
-    <row r="854">
+    <row r="854" spans="7:7" ht="13">
       <c r="G854" s="10"/>
     </row>
-    <row r="855">
+    <row r="855" spans="7:7" ht="13">
       <c r="G855" s="10"/>
     </row>
-    <row r="856">
+    <row r="856" spans="7:7" ht="13">
       <c r="G856" s="10"/>
     </row>
-    <row r="857">
+    <row r="857" spans="7:7" ht="13">
       <c r="G857" s="10"/>
     </row>
-    <row r="858">
+    <row r="858" spans="7:7" ht="13">
       <c r="G858" s="10"/>
     </row>
-    <row r="859">
+    <row r="859" spans="7:7" ht="13">
       <c r="G859" s="10"/>
     </row>
-    <row r="860">
+    <row r="860" spans="7:7" ht="13">
       <c r="G860" s="10"/>
     </row>
-    <row r="861">
+    <row r="861" spans="7:7" ht="13">
       <c r="G861" s="10"/>
     </row>
-    <row r="862">
+    <row r="862" spans="7:7" ht="13">
       <c r="G862" s="10"/>
     </row>
-    <row r="863">
+    <row r="863" spans="7:7" ht="13">
       <c r="G863" s="10"/>
     </row>
-    <row r="864">
+    <row r="864" spans="7:7" ht="13">
       <c r="G864" s="10"/>
     </row>
-    <row r="865">
+    <row r="865" spans="7:7" ht="13">
       <c r="G865" s="10"/>
     </row>
-    <row r="866">
+    <row r="866" spans="7:7" ht="13">
       <c r="G866" s="10"/>
     </row>
-    <row r="867">
+    <row r="867" spans="7:7" ht="13">
       <c r="G867" s="10"/>
     </row>
-    <row r="868">
+    <row r="868" spans="7:7" ht="13">
       <c r="G868" s="10"/>
     </row>
-    <row r="869">
+    <row r="869" spans="7:7" ht="13">
       <c r="G869" s="10"/>
     </row>
-    <row r="870">
+    <row r="870" spans="7:7" ht="13">
       <c r="G870" s="10"/>
     </row>
-    <row r="871">
+    <row r="871" spans="7:7" ht="13">
       <c r="G871" s="10"/>
     </row>
-    <row r="872">
+    <row r="872" spans="7:7" ht="13">
       <c r="G872" s="10"/>
     </row>
-    <row r="873">
+    <row r="873" spans="7:7" ht="13">
       <c r="G873" s="10"/>
     </row>
-    <row r="874">
+    <row r="874" spans="7:7" ht="13">
       <c r="G874" s="10"/>
     </row>
-    <row r="875">
+    <row r="875" spans="7:7" ht="13">
       <c r="G875" s="10"/>
     </row>
-    <row r="876">
+    <row r="876" spans="7:7" ht="13">
       <c r="G876" s="10"/>
     </row>
-    <row r="877">
+    <row r="877" spans="7:7" ht="13">
       <c r="G877" s="10"/>
     </row>
-    <row r="878">
+    <row r="878" spans="7:7" ht="13">
       <c r="G878" s="10"/>
     </row>
-    <row r="879">
+    <row r="879" spans="7:7" ht="13">
       <c r="G879" s="10"/>
     </row>
-    <row r="880">
+    <row r="880" spans="7:7" ht="13">
       <c r="G880" s="10"/>
     </row>
-    <row r="881">
+    <row r="881" spans="7:7" ht="13">
       <c r="G881" s="10"/>
     </row>
-    <row r="882">
+    <row r="882" spans="7:7" ht="13">
       <c r="G882" s="10"/>
     </row>
-    <row r="883">
+    <row r="883" spans="7:7" ht="13">
       <c r="G883" s="10"/>
     </row>
-    <row r="884">
+    <row r="884" spans="7:7" ht="13">
       <c r="G884" s="10"/>
     </row>
-    <row r="885">
+    <row r="885" spans="7:7" ht="13">
       <c r="G885" s="10"/>
     </row>
-    <row r="886">
+    <row r="886" spans="7:7" ht="13">
       <c r="G886" s="10"/>
     </row>
-    <row r="887">
+    <row r="887" spans="7:7" ht="13">
       <c r="G887" s="10"/>
     </row>
-    <row r="888">
+    <row r="888" spans="7:7" ht="13">
       <c r="G888" s="10"/>
     </row>
-    <row r="889">
+    <row r="889" spans="7:7" ht="13">
       <c r="G889" s="10"/>
     </row>
-    <row r="890">
+    <row r="890" spans="7:7" ht="13">
       <c r="G890" s="10"/>
     </row>
-    <row r="891">
+    <row r="891" spans="7:7" ht="13">
       <c r="G891" s="10"/>
     </row>
-    <row r="892">
+    <row r="892" spans="7:7" ht="13">
       <c r="G892" s="10"/>
     </row>
-    <row r="893">
+    <row r="893" spans="7:7" ht="13">
       <c r="G893" s="10"/>
     </row>
-    <row r="894">
+    <row r="894" spans="7:7" ht="13">
       <c r="G894" s="10"/>
     </row>
-    <row r="895">
+    <row r="895" spans="7:7" ht="13">
       <c r="G895" s="10"/>
     </row>
-    <row r="896">
+    <row r="896" spans="7:7" ht="13">
       <c r="G896" s="10"/>
     </row>
-    <row r="897">
+    <row r="897" spans="7:7" ht="13">
       <c r="G897" s="10"/>
     </row>
-    <row r="898">
+    <row r="898" spans="7:7" ht="13">
       <c r="G898" s="10"/>
     </row>
-    <row r="899">
+    <row r="899" spans="7:7" ht="13">
       <c r="G899" s="10"/>
     </row>
-    <row r="900">
+    <row r="900" spans="7:7" ht="13">
       <c r="G900" s="10"/>
     </row>
-    <row r="901">
+    <row r="901" spans="7:7" ht="13">
       <c r="G901" s="10"/>
     </row>
-    <row r="902">
+    <row r="902" spans="7:7" ht="13">
       <c r="G902" s="10"/>
     </row>
-    <row r="903">
+    <row r="903" spans="7:7" ht="13">
       <c r="G903" s="10"/>
     </row>
-    <row r="904">
+    <row r="904" spans="7:7" ht="13">
       <c r="G904" s="10"/>
     </row>
-    <row r="905">
+    <row r="905" spans="7:7" ht="13">
       <c r="G905" s="10"/>
     </row>
-    <row r="906">
+    <row r="906" spans="7:7" ht="13">
       <c r="G906" s="10"/>
     </row>
-    <row r="907">
+    <row r="907" spans="7:7" ht="13">
       <c r="G907" s="10"/>
     </row>
-    <row r="908">
+    <row r="908" spans="7:7" ht="13">
       <c r="G908" s="10"/>
     </row>
-    <row r="909">
+    <row r="909" spans="7:7" ht="13">
       <c r="G909" s="10"/>
     </row>
-    <row r="910">
+    <row r="910" spans="7:7" ht="13">
       <c r="G910" s="10"/>
     </row>
-    <row r="911">
+    <row r="911" spans="7:7" ht="13">
       <c r="G911" s="10"/>
     </row>
-    <row r="912">
+    <row r="912" spans="7:7" ht="13">
       <c r="G912" s="10"/>
     </row>
-    <row r="913">
+    <row r="913" spans="7:7" ht="13">
       <c r="G913" s="10"/>
     </row>
-    <row r="914">
+    <row r="914" spans="7:7" ht="13">
       <c r="G914" s="10"/>
     </row>
-    <row r="915">
+    <row r="915" spans="7:7" ht="13">
       <c r="G915" s="10"/>
     </row>
-    <row r="916">
+    <row r="916" spans="7:7" ht="13">
       <c r="G916" s="10"/>
     </row>
-    <row r="917">
+    <row r="917" spans="7:7" ht="13">
       <c r="G917" s="10"/>
     </row>
-    <row r="918">
+    <row r="918" spans="7:7" ht="13">
       <c r="G918" s="10"/>
     </row>
-    <row r="919">
+    <row r="919" spans="7:7" ht="13">
       <c r="G919" s="10"/>
     </row>
-    <row r="920">
+    <row r="920" spans="7:7" ht="13">
       <c r="G920" s="10"/>
     </row>
-    <row r="921">
+    <row r="921" spans="7:7" ht="13">
       <c r="G921" s="10"/>
     </row>
-    <row r="922">
+    <row r="922" spans="7:7" ht="13">
       <c r="G922" s="10"/>
     </row>
-    <row r="923">
+    <row r="923" spans="7:7" ht="13">
       <c r="G923" s="10"/>
     </row>
-    <row r="924">
+    <row r="924" spans="7:7" ht="13">
       <c r="G924" s="10"/>
     </row>
-    <row r="925">
+    <row r="925" spans="7:7" ht="13">
       <c r="G925" s="10"/>
     </row>
-    <row r="926">
+    <row r="926" spans="7:7" ht="13">
       <c r="G926" s="10"/>
     </row>
-    <row r="927">
+    <row r="927" spans="7:7" ht="13">
       <c r="G927" s="10"/>
     </row>
-    <row r="928">
+    <row r="928" spans="7:7" ht="13">
       <c r="G928" s="10"/>
     </row>
-    <row r="929">
+    <row r="929" spans="7:7" ht="13">
       <c r="G929" s="10"/>
     </row>
-    <row r="930">
+    <row r="930" spans="7:7" ht="13">
       <c r="G930" s="10"/>
     </row>
-    <row r="931">
+    <row r="931" spans="7:7" ht="13">
       <c r="G931" s="10"/>
     </row>
-    <row r="932">
+    <row r="932" spans="7:7" ht="13">
       <c r="G932" s="10"/>
     </row>
-    <row r="933">
+    <row r="933" spans="7:7" ht="13">
       <c r="G933" s="10"/>
     </row>
-    <row r="934">
+    <row r="934" spans="7:7" ht="13">
       <c r="G934" s="10"/>
     </row>
-    <row r="935">
+    <row r="935" spans="7:7" ht="13">
       <c r="G935" s="10"/>
     </row>
-    <row r="936">
+    <row r="936" spans="7:7" ht="13">
       <c r="G936" s="10"/>
     </row>
-    <row r="937">
+    <row r="937" spans="7:7" ht="13">
       <c r="G937" s="10"/>
     </row>
-    <row r="938">
+    <row r="938" spans="7:7" ht="13">
       <c r="G938" s="10"/>
     </row>
-    <row r="939">
+    <row r="939" spans="7:7" ht="13">
       <c r="G939" s="10"/>
     </row>
-    <row r="940">
+    <row r="940" spans="7:7" ht="13">
       <c r="G940" s="10"/>
     </row>
-    <row r="941">
+    <row r="941" spans="7:7" ht="13">
       <c r="G941" s="10"/>
     </row>
-    <row r="942">
+    <row r="942" spans="7:7" ht="13">
       <c r="G942" s="10"/>
     </row>
-    <row r="943">
+    <row r="943" spans="7:7" ht="13">
       <c r="G943" s="10"/>
     </row>
-    <row r="944">
+    <row r="944" spans="7:7" ht="13">
       <c r="G944" s="10"/>
     </row>
-    <row r="945">
+    <row r="945" spans="7:7" ht="13">
       <c r="G945" s="10"/>
     </row>
-    <row r="946">
+    <row r="946" spans="7:7" ht="13">
       <c r="G946" s="10"/>
     </row>
-    <row r="947">
+    <row r="947" spans="7:7" ht="13">
       <c r="G947" s="10"/>
     </row>
-    <row r="948">
+    <row r="948" spans="7:7" ht="13">
       <c r="G948" s="10"/>
     </row>
-    <row r="949">
+    <row r="949" spans="7:7" ht="13">
       <c r="G949" s="10"/>
     </row>
-    <row r="950">
+    <row r="950" spans="7:7" ht="13">
       <c r="G950" s="10"/>
     </row>
-    <row r="951">
+    <row r="951" spans="7:7" ht="13">
       <c r="G951" s="10"/>
     </row>
-    <row r="952">
+    <row r="952" spans="7:7" ht="13">
       <c r="G952" s="10"/>
     </row>
-    <row r="953">
+    <row r="953" spans="7:7" ht="13">
       <c r="G953" s="10"/>
     </row>
-    <row r="954">
+    <row r="954" spans="7:7" ht="13">
       <c r="G954" s="10"/>
     </row>
-    <row r="955">
+    <row r="955" spans="7:7" ht="13">
       <c r="G955" s="10"/>
     </row>
-    <row r="956">
+    <row r="956" spans="7:7" ht="13">
       <c r="G956" s="10"/>
     </row>
-    <row r="957">
+    <row r="957" spans="7:7" ht="13">
       <c r="G957" s="10"/>
     </row>
-    <row r="958">
+    <row r="958" spans="7:7" ht="13">
       <c r="G958" s="10"/>
     </row>
-    <row r="959">
+    <row r="959" spans="7:7" ht="13">
       <c r="G959" s="10"/>
     </row>
-    <row r="960">
+    <row r="960" spans="7:7" ht="13">
       <c r="G960" s="10"/>
     </row>
-    <row r="961">
+    <row r="961" spans="7:7" ht="13">
       <c r="G961" s="10"/>
     </row>
-    <row r="962">
+    <row r="962" spans="7:7" ht="13">
       <c r="G962" s="10"/>
     </row>
-    <row r="963">
+    <row r="963" spans="7:7" ht="13">
       <c r="G963" s="10"/>
     </row>
-    <row r="964">
+    <row r="964" spans="7:7" ht="13">
       <c r="G964" s="10"/>
     </row>
-    <row r="965">
+    <row r="965" spans="7:7" ht="13">
       <c r="G965" s="10"/>
     </row>
-    <row r="966">
+    <row r="966" spans="7:7" ht="13">
       <c r="G966" s="10"/>
     </row>
-    <row r="967">
+    <row r="967" spans="7:7" ht="13">
       <c r="G967" s="10"/>
     </row>
-    <row r="968">
+    <row r="968" spans="7:7" ht="13">
       <c r="G968" s="10"/>
     </row>
-    <row r="969">
+    <row r="969" spans="7:7" ht="13">
       <c r="G969" s="10"/>
     </row>
-    <row r="970">
+    <row r="970" spans="7:7" ht="13">
       <c r="G970" s="10"/>
     </row>
-    <row r="971">
+    <row r="971" spans="7:7" ht="13">
       <c r="G971" s="10"/>
     </row>
-    <row r="972">
+    <row r="972" spans="7:7" ht="13">
       <c r="G972" s="10"/>
     </row>
-    <row r="973">
+    <row r="973" spans="7:7" ht="13">
       <c r="G973" s="10"/>
     </row>
-    <row r="974">
+    <row r="974" spans="7:7" ht="13">
       <c r="G974" s="10"/>
     </row>
-    <row r="975">
+    <row r="975" spans="7:7" ht="13">
       <c r="G975" s="10"/>
     </row>
-    <row r="976">
+    <row r="976" spans="7:7" ht="13">
       <c r="G976" s="10"/>
     </row>
-    <row r="977">
+    <row r="977" spans="7:7" ht="13">
       <c r="G977" s="10"/>
     </row>
-    <row r="978">
+    <row r="978" spans="7:7" ht="13">
       <c r="G978" s="10"/>
     </row>
-    <row r="979">
+    <row r="979" spans="7:7" ht="13">
       <c r="G979" s="10"/>
     </row>
-    <row r="980">
+    <row r="980" spans="7:7" ht="13">
       <c r="G980" s="10"/>
     </row>
-    <row r="981">
+    <row r="981" spans="7:7" ht="13">
       <c r="G981" s="10"/>
     </row>
-    <row r="982">
+    <row r="982" spans="7:7" ht="13">
       <c r="G982" s="10"/>
     </row>
-    <row r="983">
+    <row r="983" spans="7:7" ht="13">
       <c r="G983" s="10"/>
     </row>
-    <row r="984">
+    <row r="984" spans="7:7" ht="13">
       <c r="G984" s="10"/>
     </row>
-    <row r="985">
+    <row r="985" spans="7:7" ht="13">
       <c r="G985" s="10"/>
     </row>
-    <row r="986">
+    <row r="986" spans="7:7" ht="13">
       <c r="G986" s="10"/>
     </row>
-    <row r="987">
+    <row r="987" spans="7:7" ht="13">
       <c r="G987" s="10"/>
     </row>
-    <row r="988">
+    <row r="988" spans="7:7" ht="13">
       <c r="G988" s="10"/>
     </row>
-    <row r="989">
+    <row r="989" spans="7:7" ht="13">
       <c r="G989" s="10"/>
     </row>
-    <row r="990">
+    <row r="990" spans="7:7" ht="13">
       <c r="G990" s="10"/>
     </row>
-    <row r="991">
+    <row r="991" spans="7:7" ht="13">
       <c r="G991" s="10"/>
     </row>
-    <row r="992">
+    <row r="992" spans="7:7" ht="13">
       <c r="G992" s="10"/>
     </row>
-    <row r="993">
+    <row r="993" spans="7:7" ht="13">
       <c r="G993" s="10"/>
     </row>
-    <row r="994">
+    <row r="994" spans="7:7" ht="13">
       <c r="G994" s="10"/>
     </row>
-    <row r="995">
+    <row r="995" spans="7:7" ht="13">
       <c r="G995" s="10"/>
     </row>
-    <row r="996">
+    <row r="996" spans="7:7" ht="13">
       <c r="G996" s="10"/>
     </row>
-    <row r="997">
+    <row r="997" spans="7:7" ht="13">
       <c r="G997" s="10"/>
     </row>
-    <row r="998">
+    <row r="998" spans="7:7" ht="13">
       <c r="G998" s="10"/>
     </row>
-    <row r="999">
+    <row r="999" spans="7:7" ht="13">
       <c r="G999" s="10"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="7:7" ht="13">
       <c r="G1000" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="I4"/>
-    <hyperlink r:id="rId4" ref="I5"/>
-    <hyperlink r:id="rId5" ref="I6"/>
-    <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I8"/>
-    <hyperlink r:id="rId8" ref="I9"/>
-    <hyperlink r:id="rId9" ref="I10"/>
-    <hyperlink r:id="rId10" ref="I11"/>
-    <hyperlink r:id="rId11" ref="I12"/>
-    <hyperlink r:id="rId12" ref="I13"/>
-    <hyperlink r:id="rId13" ref="I14"/>
-    <hyperlink r:id="rId14" ref="I15"/>
-    <hyperlink r:id="rId15" ref="I16"/>
-    <hyperlink r:id="rId16" ref="I17"/>
-    <hyperlink r:id="rId17" ref="I18"/>
-    <hyperlink r:id="rId18" ref="I19"/>
-    <hyperlink r:id="rId19" ref="I20"/>
-    <hyperlink r:id="rId20" ref="I21"/>
-    <hyperlink r:id="rId21" ref="I22"/>
-    <hyperlink r:id="rId22" ref="I23"/>
-    <hyperlink r:id="rId23" ref="I24"/>
-    <hyperlink r:id="rId24" ref="I25"/>
-    <hyperlink r:id="rId25" ref="I26"/>
-    <hyperlink r:id="rId26" ref="I27"/>
-    <hyperlink r:id="rId27" ref="I28"/>
-    <hyperlink r:id="rId28" ref="I29"/>
-    <hyperlink r:id="rId29" ref="I30"/>
-    <hyperlink r:id="rId30" ref="I31"/>
-    <hyperlink r:id="rId31" ref="I32"/>
-    <hyperlink r:id="rId32" ref="I33"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId33"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/엘리스 도서관 책 정보 리스트.xlsx
+++ b/엘리스 도서관 책 정보 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwon-yongchan/Desktop/my_Project/3_Library_Kwon/KwonYc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31625AC-3991-1A45-8EB4-14BA36F32323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58DB5F-E1A7-4844-9235-F53F71FEFF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>book_name</t>
   </si>
@@ -630,6 +630,10 @@
     <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -638,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -680,6 +684,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -713,6 +724,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -931,16 +943,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="9" max="9" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -968,8 +982,11 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J1" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -997,8 +1014,11 @@
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1026,8 +1046,11 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1084,8 +1110,11 @@
       <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1113,8 +1142,11 @@
       <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1142,8 +1174,11 @@
       <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1171,8 +1206,11 @@
       <c r="I8" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1200,8 +1238,11 @@
       <c r="I9" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1229,8 +1270,11 @@
       <c r="I10" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1258,8 +1302,11 @@
       <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1287,8 +1334,11 @@
       <c r="I12" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1316,8 +1366,11 @@
       <c r="I13" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1345,8 +1398,11 @@
       <c r="I14" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1374,8 +1430,11 @@
       <c r="I15" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1403,8 +1462,11 @@
       <c r="I16" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1432,8 +1494,11 @@
       <c r="I17" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1461,8 +1526,11 @@
       <c r="I18" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1490,8 +1558,11 @@
       <c r="I19" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1519,8 +1590,11 @@
       <c r="I20" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1548,8 +1622,11 @@
       <c r="I21" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1577,8 +1654,11 @@
       <c r="I22" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1606,8 +1686,11 @@
       <c r="I23" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1635,8 +1718,11 @@
       <c r="I24" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1664,8 +1750,11 @@
       <c r="I25" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1693,8 +1782,11 @@
       <c r="I26" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1722,8 +1814,11 @@
       <c r="I27" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1751,8 +1846,11 @@
       <c r="I28" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1780,8 +1878,11 @@
       <c r="I29" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1809,8 +1910,11 @@
       <c r="I30" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1838,8 +1942,11 @@
       <c r="I31" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1867,8 +1974,11 @@
       <c r="I32" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1896,50 +2006,53 @@
       <c r="I33" s="7" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="7:7" ht="15.75" customHeight="1">
